--- a/output/selected_news.xlsx
+++ b/output/selected_news.xlsx
@@ -518,34 +518,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>메리츠화재</t>
+          <t>신한라이프</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>삼성생명, ‘어려운 보험’ 바꾸기 나섰다…AI 글쓰기·모바일 청약 전면 개선 - 보험저널</t>
+          <t>애자일소다, 신한라이프 상품정보관리시스템 자동화 구축…보험 문서 처리 ‘AI 에이전트’로 전환 - 스트레이트뉴스</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue, 06 Jan 2026 23:56:13 GMT</t>
+          <t>Fri, 09 Jan 2026 02:39:53 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.insjournal.co.kr/news/articleView.html?idxno=29657</t>
+          <t>https://www.straightnews.co.kr/news/articleView.html?idxno=291589</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>삼성생명은 새해를 맞아 고객이 보험을 더 쉽게 이해하고 이용할 수 있도록 ‘쉬운 보험’을 선보인다고 7일 밝혔다. 지난해 12월 생성형 AI 기반의 ‘AI CX 글쓰기 시스템’을 사내에 도입한 데 이어, ‘모바일 청약 2.0 프로세스’를 개선하며 고객 안내 문구부터 청약 과정 전반을 점검했다. 이를 통해 불필요한 절차와 어려운 표현을 줄이고, 고객 중심 경영 체계를 강화해 나갈 계획이다.
-먼저 삼성생명은 생성형 AI 기반의 ‘AI CX 글쓰기 시스템’을 도입해 고객에게 전달되는 콘텐츠의 품질을 높였다. ‘AI CX 글쓰기’는 고객에게 전달되는 안내 문구를 상황과 안내 방식에 맞게 정리하고, 어려운 표현을 쉽게 바꿔주는 고객 소통 지원 도구다. 이를 통해 고객이 이해하기 어려운 금융 용어나 회사 내부 표현을 쉬운 일상어로 바꾸고, 콘텐츠마다 제각각이던 표현과 단위 표기 방식도 통일했다. 그 결과 고객 안내 글의 완성도가 높아지고, 고객 혼선도 줄었다.
-모바일 청약 과정 역시 고객 관점에서 다시 정비했다. ‘모바일 청약 2.0 프로세스’는 고객 중심 청약 체계를 강화하기 위해 ‘쉽고, 빠르고, 편리한 청약’을 목표로 개편됐다. 광학문자인식(OCR) 기술을 도입해 신분증 촬영만으로 정보가 자동 입력되도록 했으며, 청약 단계에서는 자동 이동 기능을 추가해 스크롤 없이도 다음 단계로 바로 넘어갈 수 있도록 흐름을 단순화했다. 또한 회사가 이미 보유한 직업과 주소 등의 정보는 청약서에 자동 반영하고, 내용이 유사한 안내 항목은 통합해 불필요한 입력과 터치 수를 기존 74회에서 49회로 줄였다.
-삼성생명 관계자는 고객이 ‘보험이 어렵다’고 느끼는 지점부터 개선해 나가는 것이 ‘쉬운 보험’의 출발점이라며, 앞으로도 더 나은 고객 경험을 제공해 브랜드에 대한 긍정적인 신뢰를 구축해 나가겠다고 밝혔다.</t>
+          <t>애자일소다 제공
+애자일소다가 신한라이프의 상품정보관리시스템 자동화 프로젝트를 완료하며 보험업계의 고질적 과제로 꼽혀온 상품 기초 문서 처리 문제를 해소했다. 생성형 AI 기반 자동화로 상품 개발 속도와 정확도를 동시에 끌어올렸다는 평가다.
+애자일소다는 9일 신한라이프의 상품정보관리시스템 자동화 구축을 성공적으로 마쳤다고 밝혔다. 이번 프로젝트는 단순 업무 자동화를 넘어, 사람과 협업하는 ‘디지털 인재’를 현장에 구현한 사례로 회사의 엔터프라이즈 AI 기술을 집약했다.
+상품정보관리시스템은 보험 상품의 구조와 속성, 규칙을 통합 관리하는 핵심 플랫폼이다. 상품 개정이 잦고 문서 구조가 복잡해 수작업 의존도가 높았던 만큼, 보험사들은 자동화를 추진해 왔지만 구현 난도가 높았다.
+애자일소다는 자체 생성형 문서 처리 솔루션인 ‘ETL with LLM’을 투입했다. 폐쇄망 내 자체 모델과 대규모언어모델, 에이전틱 워크플로를 결합해 사업방법서와 판매 예규 등 다양한 형식의 문서에서 필요한 정보를 추출해 자동 입력하는 체계를 구축했다. 이 시스템은 가입 조건별 보험기간과 납입기간까지 자동 처리하며 지난해 12월부터 정식 가동에 들어갔다.
+핵심 기술은 표를 포함한 복잡한 문서 구조 인식과 정보 추출, 의미 이해, 포맷팅 역량이다. 애자일소다는 2015년 설립 이후 머신러닝과 강화학습 기반의 기업용 AI 소프트웨어를 개발하며 대규모 데이터 처리부터 활용까지 엔드투엔드 경험을 축적했다. 이를 바탕으로 비정형 문서를 자체 모델과 LLM으로 정제·가공하는 ‘ETL with LLM’을 고도화했고, 에이전틱 기반 RAG 솔루션 ‘챗샘(ChatSAM)’과 결합해 검색 정확도도 높였다.
+신한라이프는 이번 자동화를 통해 방대한 보험 기초 문서를 반복 검토해야 하는 부담을 줄였다. 상품 개정 사항에 대한 대응 속도가 빨라지면서 향후 상품 개발 전반의 효율 개선이 기대된다. 신한라이프는 보험 개발 업무 전반으로 에이전틱 워크플로 적용을 확대할 계획이다.
+최대우 애자일소다 대표는 “복잡한 문서에서 정보를 추출해 자동 입력하는 상품정보관리시스템 자동화는 보험업계가 오래 고민해온 과제”라며 “이번 사례가 보험 기초 서류 자동화 AI 도입을 촉진하고 업계 전반의 AI 전환을 가속하는 계기가 될 것”이라고 말했다.
+창립 10년을 맞은 애자일소다는 스스로를 ‘에이전틱 AI 기업’으로 재정의하고, 사람과 협업하는 디지털 인재 구현을 통해 국내 기업 현장의 업무 혁신을 실전 사례로 증명하겠다는 전략을 제시했다.
+[스트레이트뉴스 박응서 기자]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">

--- a/output/selected_news.xlsx
+++ b/output/selected_news.xlsx
@@ -567,39 +567,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>오픈AI, 사용자 건강 관리 돕는 ‘챗GPT 헬스’ 출시...검사 결과 이해부터 진료 준비, 식단·운동 관리까지 - 인공지능신문</t>
+          <t>LG CNS, 오픈AI 품고 'AX 1위' 굳히기…고객 맞춤 '멀티 LLM' 완성 - 지디넷코리아</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu, 08 Jan 2026 04:29:57 GMT</t>
+          <t>Thu, 15 Jan 2026 06:18:53 GMT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.aitimes.kr/news/articleView.html?idxno=38066</t>
+          <t>https://zdnet.co.kr/view/?no=20260115150014</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>출시 이미지(사진:오픈AI)
-오픈AI(OpenAI)가 사용자의 건강에 대한 이해와 건강 관리를 돕기 위한 새로운 기능인 ‘챗GPT 헬스(ChatGPT Health)’을 7일(현지시간) 출시했다.
-OpenAI는 ‘ChatGPT Health’를 통해 헬스케어 영역에서의 인공지능(AI) 활용을 확대하고 있다. 이 기능은 사용자 질환 설명, 건강 관리 정보 제공, 일상생활 속 건강 질문에 대한 답변 등 폭넓은 의료 관련 상호작용을 지원하며, 의료진이 아닌 일반 사용자도 쉽게 접근할 수 있도록 설계됐다.
-오픈AI는 챗GPT 헬스가 전문적인 의료 상담이나 진단·처방을 대체할 수 없음을 명확히 하면서도, 사용자 맞춤 건강 정보 제공과 의료 문서 작성 보조 등 다양한 기능으로 헬스케어 작업의 효율성을 높이는 데 기여할 것으로 기대하고 있다.
-챗GPT 헬스는 이용자가 자신의 건강 정보와 맥락을 바탕으로 최근 검사 결과를 이해하고 진료 전 필요한 질문을 준비하며, 식단과 운동 루틴에 대한 조언을 받는 등 일상적인 건강·웰니스 관련 도움을 받을 수 있도록 설계된 기능이다. 해당 기능은 의사들과의 긴밀한 협업을 통해 개발됐으며, 사람들이 자신의 건강 상태를 보다 쉽게 이해하고 장기적인 건강 관리를 이어갈 수 있도록 돕는 데 초점을 맞췄다.
-건강 관련 질문은 전 세계적으로 챗GPT에서 가장 빈번하게 이뤄지는 활용 사례 중 하나다. 익명화된 대화 분석에 따르면, 매주 2억 3천만 명 이상의 이용자가 챗GPT를 통해 건강 및 웰니스 관련 질문을 하고 있다.
-챗GPT 헬스를 통해 이용자들은 의료 진단서를 입력하거나, 애플 건강(Apple Health, iOS 필요), 마이피트니스팔(MyFitnessPal) 등 외부의 건강·웰니스 앱을 안전하게 연결해 보다 개인화되고 맥락에 맞는 도움을 받을 수 있다. 그동안 건강 정보는 다양한 앱, 웨어러블 기기, 진료 기록 PDF 파일 등 여러 곳에 흩어져 있어 전체적인 맥락을 파악하기 어려웠지만, 챗GPT 헬스는 이러한 정보를 통합적으로 이해하는 데 도움을 제공한다.
-시연화면
-챗GPT 헬스는 진단이나 치료를 목적으로 하지 않으며, 일상적인 질문에 대한 이해와 장기적인 건강 패턴 파악을 지원하는 데 중점을 둔다. 이를 통해 이용자들은 실제 의료 상담이나 진료를 앞두고 보다 잘 준비할 수 있도록 도울 수 있으며, 의료 이용 패턴에 맞춰 보험 옵션의 장단점을 이해하는 데에도 도움을 줄 수 있다.
-챗GPT 헬스는 사용자들이 안심하고 이용할 수 있도록 기존 챗GPT에 적용된 강력한 개인정보 보호·보안·데이터 제어 체계 위에 건강 정보 전용의 추가 보호 계층을 더해 안심하고 이용할 수 있게 설계됐다.
-챗GPT 헬스는 민감한 건강 데이터를 보호하기 위해, 독립된 전용 공간에서 운영되며 별도의 메모리 시스템을 사용해 건강 관련 대화·연결된 앱·파일이 일반 채팅과 분리되어 저장된다. 건강 대화창에서 이뤄진 대화는 모델 학습에 사용되지 않는다. 일반 챗GPT 대화 중 건강 관련 질문이 감지될 경우 추가 보호를 위해 건강 전용 대화창으로 이동할 것을 안내한다. 이용자는 언제든지 건강 탭 또는 설정의 개인화 메뉴를 통해 건강 관련 메모리를 확인하거나 삭제할 수 있다.
-챗GPT에는 이미 임시 채팅, 30일 이내 영구 삭제, 사용자 대화에서 개인정보를 기억하지 않도록 설계된 학습 방식 등 강력한 데이터 제어 기능이 적용돼 있다. 모든 대화와 파일은 저장 및 전송 시 기본적으로 암호화되며, 챗GPT 건강에는 여기에 더해 목적별 암호화와 데이터 분리 등 건강 정보의 민감성을 고려한 추가 보호 조치가 적용된다. 또한 이용자는 다중요소 인증(MFA)을 활성화해 계정 보안을 한층 강화할 수 있다.
-챗GPT 헬스 개발에는 지난 2년간 60개국, 수십 개 전문 분야에서 활동하는 260명 이상의 의사가 참여했다. 이들은 30개 주요 건강 영역에서 60만 회 이상의 모델 응답에 대해 피드백을 제공했으며, 언제 의료진 상담을 권유해야 하는지, 어떻게 명확하면서도 과도하게 단순화하지 않고 설명할지, 중요한 순간에 어떻게 안전을 우선할지 등에 대한 기준을 함께 정립했다. 이러한 협업 결과는 OpenAI의 건강 평가 프레임워크인 헬스벤치(HealthBench)에 반영돼 있다.
-현재 챗GPT 헬스는 소규모 초기 사용자 그룹과 함께 사용 경험을 개선 중이며, 향후 몇 주 내 웹과 iOS를 통해 모든 이용자에게 순차적으로 확대될 예정이다. 이용을 원하는 사용자는 대기자 명단(보기)에 등록할 수 있다.</t>
+          <t>LG CNS가 삼성SDS에 이어 국내 두 번째로 오픈AI(OpenAI) '챗GPT 엔터프라이즈' 공식 파트너 자격을 획득하며 기업용 생성형 AI 시장 주도권 경쟁에 불을 지폈다.
+이번 계약으로 현신균 대표가 강조한 고객 맞춤형 AI를 위한 핵심 요소가 모두 확보돼, 국내 AX 시장 1위 입지를 더욱 공고히 할 것이란 평가다.
+LG CNS는 15일 고객 대상 뉴스레터를 통해 챗GPT 엔터프라이즈 공식 파트너 선정 소식을 알리고 본격적인 서비스 제공에 나선다고 밝혔다.
+LG CNS와 오픈AI
+GPT-5 무제한 사용·보안 강화…'기업 맞춤형 AX' 정조준
+이번 파트너십은 단순한 제품 라인업 확장을 넘어 LG CNS가 지향하는 '고객 맞춤형 AI 전환' 전략 정점을 찍는 행보로 풀이된다.
+공개된 내용에 따르면 LG CNS 기업용 챗GPT는 기업 내부 데이터가 AI 모델 학습에 사용되지 않는 '엔터프라이즈급 보안'을 기본 보장한다. 특히 개인용 플랜 대비 2배 빠른 처리 속도를 자랑하는 최신 모델 'GPT-5'를 무제한 사용할 수 있는 환경을 제공, 업무 효율성을 극대화했다.
+이로써 LG CNS는 ▲구글 '제미나이' ▲앤트로픽 '클로드' ▲마이크로소프트 '코파일럿'과 ▲LG그룹 '엑사원'에 이어 ▲오픈AI '챗GPT'까지 확보하며 명실상부한 전방위 '멀티 대규모언어모델(LLM)' 라인업을 완성했다.
+업계 관계자는 "LG CNS가 모든 글로벌 빅테크 모델을 손에 쥐게 되면서, 고객사 비즈니스 환경과 니즈에 맞춰 최적의 모델을 조합해 제안하는 'AI 오케스트레이터' 입지가 한층 단단해질 전망"이라고 내다봤다.
+LG CNS가 선보이는 엔터프라이즈 챗GPT(이미지=LG CNS)
+현신균 대표 '오퍼레이션 엑설런스' 제시…실질적 성과로 증명
+현신균 대표는 최근 CES 2026 현장에서 '실질적인 가치 창출'과 '오퍼레이션 엑설런스(Operational Excellence)' 전략을 강조했다.
+그는 "고객이 원하는 바는 화려한 신기술 전시가 아닌 비용 절감과 품질 향상이라는 '확실한 성적표'"라며, AI 도입 목표를 추상적 혁신이 아닌 ▲속도(Speed) ▲비용(Cost) ▲품질(Quality)의 획기적 개선에 두고 있음을 분명히 했다.
+LG CNS는 오픈AI가 보유한 추론 및 데이터 처리 성능을 제조·금융 도메인 노하우와 결합해 '실전형 AX'를 구현할 전망이다. 특히 보안 우려로 AI 도입을 망설이는 보수적 기업을 위해 폐쇄형 환경 구축과 데이터 유출 방지 아키텍처를 기본 제공하며 진입 장벽을 낮출 것으로 기대된다.
+현신균 LG CNS 대표 (이미지=LG CNS)
+실제로 LG CNS는 '무상 개념증명(PoC) 1달' 프로모션을 전격 도입했다. 여기에 ▲도입 효과 검증(Discovery) ▲내재화 프로그램(Boost Camp) ▲시스템 안전 연동으로 이어지는 '3단계 도입 프로그램'을 체계화했다.
+이는 기업이 초기 투자 부담 없이 AI 효용성을 직접 검증하게 해, '검토' 단계를 넘어 실질적 '구축' 단계로 시장을 빠르게 전환시키겠다는 공격적 행보로 풀이된다.
+방산·조선 등 '불모지' 개척 중인 LG CNS...오픈AI와 'AX 성과주의' 가속
+올해 LG CNS는 단순 AI 기술 도입을 넘어 실제 사업 성과로 연결하며 그간 IT 기업 진입이 어려웠던 영역으로 'AX 영토'를 확장하고 있다.
+현신균 대표는 "기존 금융·공공 분야 수성은 물론 방산이나 조선 분야까지 AX 진출이 활발하다"고 밝혔다. 특히 진입 장벽 높고 보수적인 이들 산업군에 성공적으로 AI를 이식한 배경엔 LG CNS가 축적한 독보적 제조 도메인 노하우와 LG AI연구원 파운데이션 모델 기술력 결합이 있다는 설명이다.
+관련기사
+방산, 조선 등 피지컬AI 분야까지 본격적으로 AX를 확대 중인 LG CNS (사진=LG CNS)
+LG CNS는 기획부터 제조, 유통에 이르는 비즈니스 전 과정을 살피며 실질적 가치 증명에 집중하고 있다. AI 도입 시 비용 절감액, 공정 시간 단축률, 불량률 감소치 등 경영진이 체감할 수 있는 구체적이고 측정 가능한 데이터를 제시하는 방식이다.
+현 대표는 "고객사가 원하는 건 화려한 최신 기술 자체가 아니라 기술이 가져다주는 확실한 성적표"라며 "우리는 AI를 통해 비용·품질·속도 혁신이라는 명확한 수치를 제시해 시장 선택을 받았다"고 강조했다.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/output/selected_news.xlsx
+++ b/output/selected_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,109 +478,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>현대해상</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>현대해상 'AI 자동심사' 앞세워 유병자 가입 문턱 낮춘다 - 뉴스저널리즘</t>
+          <t>삼성화재·DB손해보험, 시니어 눈높이 맞춘다 …“비대면 서비스서 AI 챗봇보다 ARS·직통 상담” - 시사오늘</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thu, 15 Jan 2026 00:53:22 GMT</t>
+          <t>Mon, 19 Jan 2026 22:30:00 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.ngetnews.com/news/articleView.html?idxno=545556</t>
+          <t>http://www.sisaon.co.kr/news/articleView.html?idxno=179692</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>사진=현대해상
-현대해상이 인공지능(AI) 심사를 통해 유병자 가입 문턱을 낮춘 신규 광고를 선보인다.
-현대해상은 15일 간편건강보험 TV 광고 '현대해상은 간편하지' 편을 공개했다. 이번 광고는 '유병자들의 걱정을 덜어주는 보험'을 핵심 메시지로 내세웠다. 과거 병력이나 건강 이력 탓에 보험 가입을 주저하는 고객이 타깃이다.
-광고 영상은 유병자가 느끼는 심리적 부담을 육상 경기의 '허들'로 시각화했다. 병력 걱정으로 허들 앞에 멈춰 선 사람들의 모습을 조명했다. 곧이어 몇 가지 질문만으로 끝나는 AI 자동 심사 프로세스가 등장한다. 유병자도 간편하게 허들을 뛰어넘을 수 있다는 상품 특성을 강조했다.
-현대해상 관계자는 "유병자 고객의 현실적인 고민에 공감하고 보험 가입의 문턱을 낮추고자 했다"고 밝혔다. 이어 "AI 자동 심사 프로세스를 통해 간편한 가입으로 다양한 보장을 경험하기를 기대한다"고 덧붙였다.
-해당 광고는 현대해상 유튜브 채널과 TV 매체에서 확인할 수 있다.</t>
+          <t>모바일 금융 이용 늘었지만 체감 난이도는 여전… 고령층 ‘AI 장벽’
+큰 글씨·ARS·화면 공유까지… 보험사, 상담 접근성 강화
+[시사오늘·시사ON·시사온=이지원 기자]
+삼성화재가 고령층 고객을 위해 신설한 ‘시니어 친화형 모바일 서비스’ 어플 화면 이미지. ⓒ삼성화재
+보험사 모바일 플랫폼에서 AI 챗봇과 자동화된 비대면 시스템이 고령 가입자들에게 높은 진입 장벽으로 작용하고 있다는 분석이 나온다. 이에 삼성화재와 DB손해보험, 신한라이프 등 주요 보험사들은 AI 중심 구조를 보완하고 ARS 및 상담원 직통 연결을 전면에 내세운 전용 모드를 도입하며 시니어 마케팅을 강화하고 있다.
+20일 업계에 따르면 AI 기반 비대면 업무가 금융 앱의 기본 기능으로 자리 잡은 보험업계는 효율성과 비용 절감을 앞세운 디지털 전환 전략의 속도를 일부 조절하는 모습이다. 고령층 고객을 중심으로 상담원 연결에 대한 실질적인 수요가 여전히 높게 유지되고 있기 때문이다.
+한국은행이 발표한 ‘2024년 모바일 금융서비스 이용행태 조사’에 따르면 60대 이상 모바일 금융 이용률은 53.8%로 절반을 넘어섰다. 스마트폰을 활용한 금융 접근성은 확대됐지만, 실제 이용 과정에서의 체감 난이도는 여전히 높다는 평가다.
+한국지능정보사회진흥원의 ‘2024 디지털 정보격차 실태조사’에서는 고령층의 77.7%가 디지털 금융 서비스 이용에 어려움을 느낀다고 응답했다. 업계에서는 복잡한 본인 인증 절차와 AI 챗봇 중심의 응대 구조가 고령층에게는 여전히 진입 장벽으로 작용하고 있다고 본다.
+특히 보험 상품은 보장 구조가 복잡해 단순 문의와 달리 전문가를 통한 설명과 확인 과정이 필요하다는 지적이 나온다.
+이 같은 변화는 금융당국의 정책 기조와도 맞물려 있다. 금융감독원은 지난 2022년 ‘고령자 친화적 모바일 금융 앱 구성 지침’을 마련하며 가독성 강화와 직관적 서비스 제공을 권고했다.
+이에 따라 일부 보험사들은 AI 중심의 비대면 구조를 유지하되, 상담원이 개입할 수 있는 ‘중간 지점’을 설계하는 방향으로 전략으로 재설계하고 있다.
+삼성화재는 지난 2023년 말 도입한 ‘시니어 친화형 모바일 서비스’를 고도화했다. 큰 글씨 모드와 1화면 1기능 설계를 적용해 인지 부담을 낮췄으며, 모든 과정에서 즉시 상담원과 연결할 수 있는 버튼을 전면에 배치했다.
+DB손해보험은 2024년 도입한 ‘간편모드’를 통해 계약 조회부터 보험금 청구까지 전 과정에 상담원 지원 기능을 통합했다. 이용 과정에서 어려움이 발생할 경우 즉시 상담원의 도움을 받을 수 있도록 설계됐다는 것이다.
+신한라이프 또한 고령층 고객을 위한 전용 ARS 번호를 운영하고, 상담원 연결 단계를 대폭 축소하는 등 '패스트트랙' 서비스를 강화하고 있다.
+천상영 신한라이프 사장은 2일 열린 ‘2026년 경영전략회의’에서 “AI 전환과 디지털 혁신을 통해 고객 접점의 편의성을 높이고, 시니어 사업 등 신규 성장 기반을 확대해 변화하는 금융 환경에 선제적으로 대응하겠다”고 말했다.
+한화생명과 교보생명은 상담원이 고객의 모바일 화면을 실시간으로 함께 보며 안내하는 ‘공동 브라우징’(Co-browsing) 서비스를 통해 디지털 소외 계층의 업무 완결성을 높이고 있다.
+보험사들이 디지털 채널의 효율성보다 인적 서비스를 강화하는 이러한 배경에는 시니어 계층의 시장 내 영향력이 자리하고 있다는 분석이다.
+국가데이터처와 한국은행이 발표한 ‘2025년 가계금융복지조사’에 따르면 50대 가구의 평균 자산은 6억6205만 원으로 전 연령대 중 가장 많았고, 60대 이상 가구 역시 평균 자산이 6억 원을 넘어섰다.
+업계에서는 젊은 층의 보험 신규 가입이 정체된 반면, 고령층의 보험 수요와 유지 비중은 꾸준히 확대되고 있는 것으로 보고 있다. 건강보험공단 통계 기준 고령층은 전체 진료비에서 차지하는 비중이 높아 건강 관리와 보장성 보험에 대한 관심도도 높은 편에 속하다는 것이다.
+보험업계 관계자는 “시니어 대상 서비스 강화는 단순한 편의 제공 차원을 넘어선 전략적 선택”이라며 “AI 자동화가 확대될수록 상담원을 통한 설명과 신뢰 형성이 장기 계약 유지와 브랜드 충성도를 좌우하는 요소로 작용하고 있다”고 말했다.
+저작권자 © 시사오늘(시사ON) 무단전재 및 재배포 금지</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>보험사</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>신한라이프</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>애자일소다, 신한라이프 상품정보관리시스템 자동화 구축…보험 문서 처리 ‘AI 에이전트’로 전환 - 스트레이트뉴스</t>
+          <t>LG CNS, 오픈AI 품고 'AX 1위' 굳히기…고객 맞춤 '멀티 LLM' 완성 - 지디넷코리아</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fri, 09 Jan 2026 02:39:53 GMT</t>
+          <t>Thu, 15 Jan 2026 06:18:53 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.straightnews.co.kr/news/articleView.html?idxno=291589</t>
+          <t>https://zdnet.co.kr/view/?no=20260115150014</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>애자일소다 제공
-애자일소다가 신한라이프의 상품정보관리시스템 자동화 프로젝트를 완료하며 보험업계의 고질적 과제로 꼽혀온 상품 기초 문서 처리 문제를 해소했다. 생성형 AI 기반 자동화로 상품 개발 속도와 정확도를 동시에 끌어올렸다는 평가다.
-애자일소다는 9일 신한라이프의 상품정보관리시스템 자동화 구축을 성공적으로 마쳤다고 밝혔다. 이번 프로젝트는 단순 업무 자동화를 넘어, 사람과 협업하는 ‘디지털 인재’를 현장에 구현한 사례로 회사의 엔터프라이즈 AI 기술을 집약했다.
-상품정보관리시스템은 보험 상품의 구조와 속성, 규칙을 통합 관리하는 핵심 플랫폼이다. 상품 개정이 잦고 문서 구조가 복잡해 수작업 의존도가 높았던 만큼, 보험사들은 자동화를 추진해 왔지만 구현 난도가 높았다.
-애자일소다는 자체 생성형 문서 처리 솔루션인 ‘ETL with LLM’을 투입했다. 폐쇄망 내 자체 모델과 대규모언어모델, 에이전틱 워크플로를 결합해 사업방법서와 판매 예규 등 다양한 형식의 문서에서 필요한 정보를 추출해 자동 입력하는 체계를 구축했다. 이 시스템은 가입 조건별 보험기간과 납입기간까지 자동 처리하며 지난해 12월부터 정식 가동에 들어갔다.
-핵심 기술은 표를 포함한 복잡한 문서 구조 인식과 정보 추출, 의미 이해, 포맷팅 역량이다. 애자일소다는 2015년 설립 이후 머신러닝과 강화학습 기반의 기업용 AI 소프트웨어를 개발하며 대규모 데이터 처리부터 활용까지 엔드투엔드 경험을 축적했다. 이를 바탕으로 비정형 문서를 자체 모델과 LLM으로 정제·가공하는 ‘ETL with LLM’을 고도화했고, 에이전틱 기반 RAG 솔루션 ‘챗샘(ChatSAM)’과 결합해 검색 정확도도 높였다.
-신한라이프는 이번 자동화를 통해 방대한 보험 기초 문서를 반복 검토해야 하는 부담을 줄였다. 상품 개정 사항에 대한 대응 속도가 빨라지면서 향후 상품 개발 전반의 효율 개선이 기대된다. 신한라이프는 보험 개발 업무 전반으로 에이전틱 워크플로 적용을 확대할 계획이다.
-최대우 애자일소다 대표는 “복잡한 문서에서 정보를 추출해 자동 입력하는 상품정보관리시스템 자동화는 보험업계가 오래 고민해온 과제”라며 “이번 사례가 보험 기초 서류 자동화 AI 도입을 촉진하고 업계 전반의 AI 전환을 가속하는 계기가 될 것”이라고 말했다.
-창립 10년을 맞은 애자일소다는 스스로를 ‘에이전틱 AI 기업’으로 재정의하고, 사람과 협업하는 디지털 인재 구현을 통해 국내 기업 현장의 업무 혁신을 실전 사례로 증명하겠다는 전략을 제시했다.
-[스트레이트뉴스 박응서 기자]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LG CNS, 오픈AI 품고 'AX 1위' 굳히기…고객 맞춤 '멀티 LLM' 완성 - 지디넷코리아</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu, 15 Jan 2026 06:18:53 GMT</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://zdnet.co.kr/view/?no=20260115150014</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>LG CNS가 삼성SDS에 이어 국내 두 번째로 오픈AI(OpenAI) '챗GPT 엔터프라이즈' 공식 파트너 자격을 획득하며 기업용 생성형 AI 시장 주도권 경쟁에 불을 지폈다.
 이번 계약으로 현신균 대표가 강조한 고객 맞춤형 AI를 위한 핵심 요소가 모두 확보돼, 국내 AX 시장 1위 입지를 더욱 공고히 할 것이란 평가다.
@@ -608,8 +579,94 @@
 현 대표는 "고객사가 원하는 건 화려한 최신 기술 자체가 아니라 기술이 가져다주는 확실한 성적표"라며 "우리는 AI를 통해 비용·품질·속도 혁신이라는 명확한 수치를 제시해 시장 선택을 받았다"고 강조했다.</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>보험사</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[아주초대석] AI는 기술이 아니라 엔진입니다… 한화생명이 그리는 라이프 솔루션 AI - 아주경제</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wed, 07 Jan 2026 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.ajunews.com/view/20260107135525452</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>생성형 인공지능(AI)이 일상생활에 깊숙하게 침투하면서 사회 전반에 변화의 바람이 거세게 불고 있다. 현재 AI가 조직, 나아가 국가의 미래를 좌우할 것이란 전망에 이견을 제기하는 사람은 없다. 금융권도 예외는 아니다. 금융사들은 AI 전문 조직을 설치하고, 인재 영입에도 적극적으로 나서고 있다.한화생명의 AI 사업을 주도하는 김준석 AI실장도 2024년 봄 회사에 합류했다. 네이버와 현대자동차에서 AI 업무를 담당했던 그는 한화생명 입사 이후 광학문자인식(OCR)과 영업활동 교육(STS) 등 보험사 업무 전반에 AI 체계를 구축하는 업무를 총괄하고 있다.실장은 “올해 ‘AI 에이전트’를 확대 적용해 고객의 삶 전반에 도움을 주는 ‘라이프 솔루션 AI’를 실현하겠다”는 계획을 밝혔다.“한화생명은 AI를 단순한 기술이 아니라 보험 본업 전체를 혁신하는 핵심 엔진으로 보고 있다. 고객 응대, 영업 지원 등 업무 전반에 AI를 적용하며 효율성을 극대화하고 있다. 고객 응대 자동화·지능화를 실현하는 AI 콘택트 센터(AICC), 보험금 청구서류를 인식·분석하는 AI OCR, 영업활동에 필요한 내용을 교육하는 AI STS, 외국인 설계사를 위한 AI 번역 서비스 등이 대표적인 사례다. 최근에는 마치 사람처럼 업무가 가능한 ‘AI 에이전트’에 집중하고 있다. 이처럼 AI실은 회사에 필요한 AI 기반 기술·서비스를 만드는 일을 한다. 한화생명은 AI실 외에도 미래에 필요한 AI 기술이나 준비가 필요한 것들을 긴 호흡으로 준비하는 AI연구소, 한화손해보험·한화자산운용과 함께 미국 샌프란시스코에 설립한 한화AI센터(HAC) 등 AI 조직을 갖추고 있다.”“2024년 금융당국이 혁신금융서비스 형태로 금융권이 생성형 AI를 활용할 수 있도록 열어준 것을 계기로 지난해 많은 서비스가 나왔다. 한화생명도 네 건의 승인을 받아 관련 서비스를 출시했다. 금융규제 샌드박스를 통해 대형언어모델(LLM) 기반의 서비스도 할 수 있게 됐다. 그러나 범위를 확대하거나 절차를 개선해 혁신의 속도를 높이는 제도적 개선도 필요하다. 그 밖에 AI 오판으로 인한 책임소재를 가려야 할 때를 대비해 명확한 지침도 필요하다.”“금융권에서 노력해야 하는 부분은 △데이터 표준화 △설명 가능성 확보 △개인정보 보안 등이다. 우선 같은 병명이나 치료에 대해 병원마다 표현이 다른데, 이런 비정형 데이터를 표준화하는 작업이 필요하다. 또 생성형 AI가 답변을 제공할 때 판단 근거나 출처를 함께 제공하려는 노력도 이뤄져야 한다. 개인정보 보안에 대한 노력은 특히 중요하다. 금융권에서는 민감한 개인정보를 많이 다루기 때문이다. 개인정보 비식별화, 연합학습 등과 관련한 연구가 이뤄져야 한다”“최근 회사별로 자체적인 내부 생성형 AI 모델보다 오픈AI, 구글 등의 외부모델을 활용하는 경우가 늘고 있다. 내·외부를 가리지 않고 더 좋은 결과를 도출할 수 있는 모델을 쓰자는 것이다. 따라서 보안에 대한 중요성이 더욱 강조된다. 이와 관련해 한화생명은 AI 관련 보안 정책을 철저하게 설계해 운영하고 있다. 소형언어모델(SLM)을 폐쇄망에서만 학습해 데이터 유출을 원천적으로 차단하고, OCR 서버도 외부망과 분리된 온프레미스(On-premise) 형태로 구축했다. 이에 더해 프롬프트 인젝션(AI 명령어를 악의적으로 조작해 사용자가 의도하지 않은 행동을 하도록 만드는 공격)을 막는 솔루션을 도입하는 등 공격에 대비하고 있다.”“할루시네이션은 생성형 AI에서 가장 해결하기 힘든 기술적 과제다. ‘설명 가능한 AI’에 대한 요구도 이와 같은 문제 인식에서 비롯된다. 예컨대 보험상품과 관련해서는 약관이나 상품설명서 중 어떤 부분을 참고했는지 보여줘야 한다는 것이다. 여러 후보군을 답변으로 제시한 뒤 인간의 개입을 요구하거나 ‘답변 확신도’ 개념을 적용해 확신도가 낮으면 답변을 하지 않도록 설계하는 것도 정확도 개선을 위한 노력의 일환이다. 한화생명은 AI 서비스 품질 개선을 위한 노력으로 검색증강생성(RAG)을 활용하고 있다. 예를 들어 보험약관을 참고해야 한다면, 답변을 작성하기 전에 우선 약관을 세분화해 검색한 뒤 필요한 부분만 뽑아내는 방식이다. 다만 검색 과정에서 오류가 발생할 수도 있다. 이를 찾아내고 보완하는 일들도 하고 있다.”“보험업계에서는 소비자가 가입한 모든 보험상품과 다른 정보를 결합해 추가로 필요한 보험상품을 추천하는 것도 가능해질 것이다. 이를 위해 우선 기존 보험상품에 대한 보장분석이 선행돼야 하고, 이에 더해 건강검진이나 가족력 등 추가 정보를 종합해 소비자의 수요를 파악할 수 있어야 한다. 지금보다 훨씬 구체적으로 보험상품을 추천하는 서비스가 확대되면서 보험시장이 크게 변화할 수도 있다. 한화생명은 ‘AI 에이전트’를 확대 적용하려고 한다. 이를 통해 고객의 금융 접근성 향상, 영업 현장 업무 효율성 극대화 등을 도모하고자 한다. 궁극적으로는 한화생명의 비전으로 제시된 ‘라이프 솔루션 AI’를 실현하려고 한다. 보험을 넘어 고객의 동반자로서 삶 전반에 도움을 주겠다는 것인데, 이를 실현할 수 있는 다양한 AI 서비스를 만들겠다”“최근 AI연구소가 국제 학술대회에서 ‘AI 기반 차익거래 모델’ 논문을 발표했다. 연구 성과가 자산·부채 관리에 적용되면 회사의 투자 전략 고도화에 기여할 수 있다. 그렇게 되면 금융소비자를 위한 퇴직연금이나 변액보험 등 운용에도 AI를 활용한 포트폴리오 최적화가 가능해진다. 상용화를 위해 고객 포트폴리오 선택에 도입하는 식으로의 방향 전환이 필요하다.”“오케스트레이터 에이전트와 AI 기여도 측정 시스템을 중점적으로 추진하려고 한다. AI 분야에서 작년의 키워드는 ‘AI 에이전트’였다. 올해는 오케스트레이션이 화두에 오를 것으로 보인다. 여러 업무에 적용되면 에이전트를 관리하는 에이전트인 ‘AI 오케스트레이터’도 필요하기 때문이다. 이에 더해 에이전트의 업무분장이나 계층 구조를 바꾸는 일종의 조직개편 관련 연구도 진행돼야 할 것 같다. 이에 더해 AI를 활용해 내놓은 결과물이 정말 사업에 기여하고 있는지 측정할 수 있는 시스템을 구축하려고 한다. 이 밖에 현재 제공하고 있는 다양한 서비스 고도화, 인공지능기본법 시행에 발맞춘 AI 거버넌스 개선 등을 추진할 계획이다.”</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>76</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>신한은행</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>국내 주요 은행별 AI 도입 현황 : 신한은행 - AI 선도 은행의 종합 전략 - 핀테크투데이</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri, 16 Jan 2026 07:08:40 GMT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://www.fintechtoday.co.kr/news/articleView.html?idxno=2392</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>기자명 핀테크투데이
+국내 주요 은행별 AI 도입 현황
+신한은행 - AI 선도 은행의 종합 전략
+신한은행은 국내에서 가장 적극적으로 AI를 도입한 은행 중 하나입니다. OpenAI GPT 모델을 업무망에 연계한 생성형 AI 금융지식 Q&amp;A 서비스는 10만 건 이상의 은행 상품, 규정, 절차를 학습하여 직원들의 상담 전문성을 크게 향상시켰습니다.
+AI 브랜치 외에도 'AI Studio' 플랫폼으로 감성 분석, 이상 외화송금 탐지 등 다양한 AI 서비스를 통합 운영하고 있습니다. 직원용 AI 업무비서 'AI ONE'은 내부 프로세스를 최적화하여 업무 속도와 정확성을 동시에 개선했습니다.
+신한은행의 AI 도입 현황(요약)
+신한은행의 AI 도입은 ①영업점(오프라인 채널) 혁신, ②직원 업무 생산성/자동화, ③금융 심사·리스크/컴플라이언스 고도화, ④AI 인프라(데이터센터) 투자로 정리할 수 있습니다.
+1) 생성형 AI를 핵심 업무(심사)까지 확장
+신한은행은 **OpenAI GPT 모델을 적용한 ‘수출환어음 매입 AI 심사 서비스’**를 출시했다고 밝힌 바 있습니다. 이는 생성형 AI를 단순 상담/검색을 넘어 실제 심사 프로세스에 접목한 사례로 볼 수 있습니다. Source
+2) 오프라인 채널: AI 브랜치/AI 창구 등 ‘AI 기반 점포’ 실험
+신한은행은 AI 기술을 적용한 무인 점포(‘AI 브랜치’) 및 지점 내 별도 ‘AI 창구’ 운영 등으로, 오프라인 점포의 셀프·자동화 방향을 강화하는 흐름이 보도되었습니다. 특히 AI 창구에서 계좌/체크카드 발급, 환전 등 간단한 은행 업무 처리를 지원하고, 향후 대출 상담까지 확대 계획이 언급됩니다. Source
+3) 직원 업무 혁신: RPA + AI-OCR 기반 대규모 자동화(알파봇)
+신한은행은 영업점 업무에서 **RPA(알파봇)**를 운영하고, **AI-OCR(문자인식)**을 결합해 신청서류 변환·처리 등 반복 업무를 자동화한 사례가 소개됐습니다. 기사에서는 월 평균 1만1000건·1만3400시간 수준의 업무 자동화 등 구체적 수치도 언급됩니다. Source
+4) AI 인프라 투자: ‘AI 데이터센터’ 구축(그룹 전략 인프라)
+신한은행은 남양주시와 협력해 AI 데이터센터를 구축하겠다는 계획을 공개했습니다. 그룹 차원의 ‘금융 AI 대전환’ 전략을 뒷받침하는 핵심 인프라로 활용한다는 취지이며, 2027년 착공~2029년 준공 일정이 제시돼 있습니다. Source
+5) 외부 파트너십: 생성형 AI·무인점포 고도화 협력
+해외 보도에서는 신한은행이 효성TNS, LG CNS와 함께 생성형 AI 모델 공동 개발, AI+디지털 디바이스 기반 무인뱅킹 고도화, 지속 협업 플랫폼 운영 등을 추진한다고 전했습니다. Source</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/output/selected_news.xlsx
+++ b/output/selected_news.xlsx
@@ -473,30 +473,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>증권사</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>토스증권</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>"AI 뉴스는 책임없다"…토스증권, 손실 고객에 상품권 '입단속'? - 뷰어스</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri, 23 Jan 2026 06:21:38 GMT</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://theviewers.co.kr/View.aspx?No=3951903</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(사진=토스증권)
+토스증권이 최근 발생한 인공지능(AI) 뉴스 오류 사고와 관련해 투자자 피해보상 책임을 외면하고 있다는 주장이 제기됐다. 해당 투자자는 22일 뷰어스와 통화에서 "토스증권이 상품권에 이어 수수료 무료 제안을 하면서 '입단속'까지 요구했다"며 주장했다.
+지난 13일 토스증권은 오후 4시 30분경 나스닥 상장사 파월 맥스(PMAX) 종목 뉴스로 희토류 호재 기사를 게시했다. 이 기사를 접한 투자자 A씨는 오후 8시26분 약 1000만원어치 파월 맥스 주식을 매수했다.
+문제는 토스증권의 AI 자동 분류 오류로 인해 티커는 동일하지만 다른 종목(파워 맥스 미네랄, PMAX)에 대한 뉴스가 잘못 게재된 것. 이를 확인한 토스증권은 해당 뉴스를 9시30분경 삭제했지만 이미 투자자들은 매수를 마친 시점이었다. A씨 역시 뒤늦게 오류를 확인한 뒤 11시 5분 매도했으나 약 100만원 손해를 입었다.
+A씨는 이와 관련해 토스증권 고객센터에 항의했다. A씨는 "토스증권은 해당일 '매매 장애가 아니라 AI를 통한 단순 정보 제공이므로 관련 책임이 있다고 보기 어렵다'고 답했다"며 "이후 재차 연락을 통해 투자 유의사항이 사전에 안내돼 있어 귀책이 불명확하다는 안내를 받았다"고 말했다.
+(토스증권 종목 뉴스 최하단에 위치한 유의사항, 사진=토스증권 MTS)
+토스증권이 언급한 AI 뉴스 관련 경고문은 모바일트레이딩시스템(MTS)상 뉴스 본문과 주요 뉴스, 관련 주식 항목 등이 안내된 화면 최하단에 배치돼 있다. 사실 면밀히 살피지 않는한 투자자가 직관적으로 인지하기 어려운 위치다.
+토스증권이 이에 대해 제시한 보상 대안 역시 투자자 입장에선 납득하기 어렵다는 게 A씨 입장이다. A씨는 "책임이 없어 전액 배상이 어렵다는 반응에 손실액의 10~20% 수준 보상을 제안했으나 받아들여지지 않았다"며 "사고 배상이 아닌, 도의적 차원에서 상품권 2만원을 제공하겠다는 답변과 함께 언론 제보 자제 요청을 해와 기가 찼다"고 전해왔다.
+그는 "항의를 계속하자 상품권 금액을 2만원에서 3만원으로 올리고, 한 달간 수수료 무료 혜택을 주겠다는 제안이 추가됐다"며 "뚜렷한 보상 기준도 없고, 최근 사고가 난 '쿠팡 보상안'처럼 자사 서비스를 영업한다는 인상을 받았다"고 덧붙였다.
+이에 대해 토스증권 관계자는 뷰어스와 통화에서 "매매장애로 인한 피해 보상기준은 마련돼 있지만, 이번 AI 오류는 예외적 케이스인만큼 내부적으로 기준을 검토 중"이라며 "거래와 직결되지 않는 부분이라 보상 수준이 변동됐다"고 해명했다.
+AI뉴스 경고문을 인지하기 어렵게 배치한 뒤 책임을 회피한다는 비판에 대해선 "당사만의 문제가 아니라 은행의 주가연계증권(ELS) 판매에서도 드러난 금융권 전반 문제"라며 "원칙적으로 투자 책임은 투자자 본인에게 있다"고 답했다.
+토스증권은 피해금액 전액 보상이 불가한 이유로 '과도한 배상에 따른 위법 소지'를 근거로 들고 있다. 투자 손실보전을 금지하는 자본시장법 제55조에 따르면 '투자자가 입을 손실의 전부 또는 일부를 보전해 줄 것을 사전에 약속하거나 사후에 보전해주는 행위'를 금지하고 있다. 이는 투자자의 자기책임 원칙과 건전한 시장 질서를 유지하기 위한 법령이다.
+다만 손실보전 금지 조항이 전액 배상을 일률적으로 금지한 것은 아니란 해석도 나온다.
+금융감독원 관계자는 해당 사안에 대해 "해당 조항에는 정당한 사유가 있다면 배상이 가능하다는 취지가 포함돼 있다"며 "분쟁조정이 접수될 경우 토스증권이 제공한 정보와 고객의 투자 의사 결정 간 인과관계 여부가 쟁점이 될 것"이라고 답했다.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>보험사</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>삼성화재</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>삼성화재·DB손해보험, 시니어 눈높이 맞춘다 …“비대면 서비스서 AI 챗봇보다 ARS·직통 상담” - 시사오늘</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Mon, 19 Jan 2026 22:30:00 GMT</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>http://www.sisaon.co.kr/news/articleView.html?idxno=179692</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>모바일 금융 이용 늘었지만 체감 난이도는 여전… 고령층 ‘AI 장벽’
 큰 글씨·ARS·화면 공유까지… 보험사, 상담 접근성 강화
@@ -521,101 +569,77 @@
 저작권자 © 시사오늘(시사ON) 무단전재 및 재배포 금지</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>71</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LG CNS, 오픈AI 품고 'AX 1위' 굳히기…고객 맞춤 '멀티 LLM' 완성 - 지디넷코리아</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Thu, 15 Jan 2026 06:18:53 GMT</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://zdnet.co.kr/view/?no=20260115150014</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>LG CNS가 삼성SDS에 이어 국내 두 번째로 오픈AI(OpenAI) '챗GPT 엔터프라이즈' 공식 파트너 자격을 획득하며 기업용 생성형 AI 시장 주도권 경쟁에 불을 지폈다.
-이번 계약으로 현신균 대표가 강조한 고객 맞춤형 AI를 위한 핵심 요소가 모두 확보돼, 국내 AX 시장 1위 입지를 더욱 공고히 할 것이란 평가다.
-LG CNS는 15일 고객 대상 뉴스레터를 통해 챗GPT 엔터프라이즈 공식 파트너 선정 소식을 알리고 본격적인 서비스 제공에 나선다고 밝혔다.
-LG CNS와 오픈AI
-GPT-5 무제한 사용·보안 강화…'기업 맞춤형 AX' 정조준
-이번 파트너십은 단순한 제품 라인업 확장을 넘어 LG CNS가 지향하는 '고객 맞춤형 AI 전환' 전략 정점을 찍는 행보로 풀이된다.
-공개된 내용에 따르면 LG CNS 기업용 챗GPT는 기업 내부 데이터가 AI 모델 학습에 사용되지 않는 '엔터프라이즈급 보안'을 기본 보장한다. 특히 개인용 플랜 대비 2배 빠른 처리 속도를 자랑하는 최신 모델 'GPT-5'를 무제한 사용할 수 있는 환경을 제공, 업무 효율성을 극대화했다.
-이로써 LG CNS는 ▲구글 '제미나이' ▲앤트로픽 '클로드' ▲마이크로소프트 '코파일럿'과 ▲LG그룹 '엑사원'에 이어 ▲오픈AI '챗GPT'까지 확보하며 명실상부한 전방위 '멀티 대규모언어모델(LLM)' 라인업을 완성했다.
-업계 관계자는 "LG CNS가 모든 글로벌 빅테크 모델을 손에 쥐게 되면서, 고객사 비즈니스 환경과 니즈에 맞춰 최적의 모델을 조합해 제안하는 'AI 오케스트레이터' 입지가 한층 단단해질 전망"이라고 내다봤다.
-LG CNS가 선보이는 엔터프라이즈 챗GPT(이미지=LG CNS)
-현신균 대표 '오퍼레이션 엑설런스' 제시…실질적 성과로 증명
-현신균 대표는 최근 CES 2026 현장에서 '실질적인 가치 창출'과 '오퍼레이션 엑설런스(Operational Excellence)' 전략을 강조했다.
-그는 "고객이 원하는 바는 화려한 신기술 전시가 아닌 비용 절감과 품질 향상이라는 '확실한 성적표'"라며, AI 도입 목표를 추상적 혁신이 아닌 ▲속도(Speed) ▲비용(Cost) ▲품질(Quality)의 획기적 개선에 두고 있음을 분명히 했다.
-LG CNS는 오픈AI가 보유한 추론 및 데이터 처리 성능을 제조·금융 도메인 노하우와 결합해 '실전형 AX'를 구현할 전망이다. 특히 보안 우려로 AI 도입을 망설이는 보수적 기업을 위해 폐쇄형 환경 구축과 데이터 유출 방지 아키텍처를 기본 제공하며 진입 장벽을 낮출 것으로 기대된다.
-현신균 LG CNS 대표 (이미지=LG CNS)
-실제로 LG CNS는 '무상 개념증명(PoC) 1달' 프로모션을 전격 도입했다. 여기에 ▲도입 효과 검증(Discovery) ▲내재화 프로그램(Boost Camp) ▲시스템 안전 연동으로 이어지는 '3단계 도입 프로그램'을 체계화했다.
-이는 기업이 초기 투자 부담 없이 AI 효용성을 직접 검증하게 해, '검토' 단계를 넘어 실질적 '구축' 단계로 시장을 빠르게 전환시키겠다는 공격적 행보로 풀이된다.
-방산·조선 등 '불모지' 개척 중인 LG CNS...오픈AI와 'AX 성과주의' 가속
-올해 LG CNS는 단순 AI 기술 도입을 넘어 실제 사업 성과로 연결하며 그간 IT 기업 진입이 어려웠던 영역으로 'AX 영토'를 확장하고 있다.
-현신균 대표는 "기존 금융·공공 분야 수성은 물론 방산이나 조선 분야까지 AX 진출이 활발하다"고 밝혔다. 특히 진입 장벽 높고 보수적인 이들 산업군에 성공적으로 AI를 이식한 배경엔 LG CNS가 축적한 독보적 제조 도메인 노하우와 LG AI연구원 파운데이션 모델 기술력 결합이 있다는 설명이다.
-관련기사
-방산, 조선 등 피지컬AI 분야까지 본격적으로 AX를 확대 중인 LG CNS (사진=LG CNS)
-LG CNS는 기획부터 제조, 유통에 이르는 비즈니스 전 과정을 살피며 실질적 가치 증명에 집중하고 있다. AI 도입 시 비용 절감액, 공정 시간 단축률, 불량률 감소치 등 경영진이 체감할 수 있는 구체적이고 측정 가능한 데이터를 제시하는 방식이다.
-현 대표는 "고객사가 원하는 건 화려한 최신 기술 자체가 아니라 기술이 가져다주는 확실한 성적표"라며 "우리는 AI를 통해 비용·품질·속도 혁신이라는 명확한 수치를 제시해 시장 선택을 받았다"고 강조했다.</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>보험사</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한화생명</t>
+          <t>구글</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[아주초대석] AI는 기술이 아니라 엔진입니다… 한화생명이 그리는 라이프 솔루션 AI - 아주경제</t>
+          <t>애플 AI가 구글 제미나이와 손 잡은 이유 - 디에디트</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed, 07 Jan 2026 08:00:00 GMT</t>
+          <t>Wed, 14 Jan 2026 08:00:00 GMT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.ajunews.com/view/20260107135525452</t>
+          <t>https://the-edit.co.kr/83357</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>생성형 인공지능(AI)이 일상생활에 깊숙하게 침투하면서 사회 전반에 변화의 바람이 거세게 불고 있다. 현재 AI가 조직, 나아가 국가의 미래를 좌우할 것이란 전망에 이견을 제기하는 사람은 없다. 금융권도 예외는 아니다. 금융사들은 AI 전문 조직을 설치하고, 인재 영입에도 적극적으로 나서고 있다.한화생명의 AI 사업을 주도하는 김준석 AI실장도 2024년 봄 회사에 합류했다. 네이버와 현대자동차에서 AI 업무를 담당했던 그는 한화생명 입사 이후 광학문자인식(OCR)과 영업활동 교육(STS) 등 보험사 업무 전반에 AI 체계를 구축하는 업무를 총괄하고 있다.실장은 “올해 ‘AI 에이전트’를 확대 적용해 고객의 삶 전반에 도움을 주는 ‘라이프 솔루션 AI’를 실현하겠다”는 계획을 밝혔다.“한화생명은 AI를 단순한 기술이 아니라 보험 본업 전체를 혁신하는 핵심 엔진으로 보고 있다. 고객 응대, 영업 지원 등 업무 전반에 AI를 적용하며 효율성을 극대화하고 있다. 고객 응대 자동화·지능화를 실현하는 AI 콘택트 센터(AICC), 보험금 청구서류를 인식·분석하는 AI OCR, 영업활동에 필요한 내용을 교육하는 AI STS, 외국인 설계사를 위한 AI 번역 서비스 등이 대표적인 사례다. 최근에는 마치 사람처럼 업무가 가능한 ‘AI 에이전트’에 집중하고 있다. 이처럼 AI실은 회사에 필요한 AI 기반 기술·서비스를 만드는 일을 한다. 한화생명은 AI실 외에도 미래에 필요한 AI 기술이나 준비가 필요한 것들을 긴 호흡으로 준비하는 AI연구소, 한화손해보험·한화자산운용과 함께 미국 샌프란시스코에 설립한 한화AI센터(HAC) 등 AI 조직을 갖추고 있다.”“2024년 금융당국이 혁신금융서비스 형태로 금융권이 생성형 AI를 활용할 수 있도록 열어준 것을 계기로 지난해 많은 서비스가 나왔다. 한화생명도 네 건의 승인을 받아 관련 서비스를 출시했다. 금융규제 샌드박스를 통해 대형언어모델(LLM) 기반의 서비스도 할 수 있게 됐다. 그러나 범위를 확대하거나 절차를 개선해 혁신의 속도를 높이는 제도적 개선도 필요하다. 그 밖에 AI 오판으로 인한 책임소재를 가려야 할 때를 대비해 명확한 지침도 필요하다.”“금융권에서 노력해야 하는 부분은 △데이터 표준화 △설명 가능성 확보 △개인정보 보안 등이다. 우선 같은 병명이나 치료에 대해 병원마다 표현이 다른데, 이런 비정형 데이터를 표준화하는 작업이 필요하다. 또 생성형 AI가 답변을 제공할 때 판단 근거나 출처를 함께 제공하려는 노력도 이뤄져야 한다. 개인정보 보안에 대한 노력은 특히 중요하다. 금융권에서는 민감한 개인정보를 많이 다루기 때문이다. 개인정보 비식별화, 연합학습 등과 관련한 연구가 이뤄져야 한다”“최근 회사별로 자체적인 내부 생성형 AI 모델보다 오픈AI, 구글 등의 외부모델을 활용하는 경우가 늘고 있다. 내·외부를 가리지 않고 더 좋은 결과를 도출할 수 있는 모델을 쓰자는 것이다. 따라서 보안에 대한 중요성이 더욱 강조된다. 이와 관련해 한화생명은 AI 관련 보안 정책을 철저하게 설계해 운영하고 있다. 소형언어모델(SLM)을 폐쇄망에서만 학습해 데이터 유출을 원천적으로 차단하고, OCR 서버도 외부망과 분리된 온프레미스(On-premise) 형태로 구축했다. 이에 더해 프롬프트 인젝션(AI 명령어를 악의적으로 조작해 사용자가 의도하지 않은 행동을 하도록 만드는 공격)을 막는 솔루션을 도입하는 등 공격에 대비하고 있다.”“할루시네이션은 생성형 AI에서 가장 해결하기 힘든 기술적 과제다. ‘설명 가능한 AI’에 대한 요구도 이와 같은 문제 인식에서 비롯된다. 예컨대 보험상품과 관련해서는 약관이나 상품설명서 중 어떤 부분을 참고했는지 보여줘야 한다는 것이다. 여러 후보군을 답변으로 제시한 뒤 인간의 개입을 요구하거나 ‘답변 확신도’ 개념을 적용해 확신도가 낮으면 답변을 하지 않도록 설계하는 것도 정확도 개선을 위한 노력의 일환이다. 한화생명은 AI 서비스 품질 개선을 위한 노력으로 검색증강생성(RAG)을 활용하고 있다. 예를 들어 보험약관을 참고해야 한다면, 답변을 작성하기 전에 우선 약관을 세분화해 검색한 뒤 필요한 부분만 뽑아내는 방식이다. 다만 검색 과정에서 오류가 발생할 수도 있다. 이를 찾아내고 보완하는 일들도 하고 있다.”“보험업계에서는 소비자가 가입한 모든 보험상품과 다른 정보를 결합해 추가로 필요한 보험상품을 추천하는 것도 가능해질 것이다. 이를 위해 우선 기존 보험상품에 대한 보장분석이 선행돼야 하고, 이에 더해 건강검진이나 가족력 등 추가 정보를 종합해 소비자의 수요를 파악할 수 있어야 한다. 지금보다 훨씬 구체적으로 보험상품을 추천하는 서비스가 확대되면서 보험시장이 크게 변화할 수도 있다. 한화생명은 ‘AI 에이전트’를 확대 적용하려고 한다. 이를 통해 고객의 금융 접근성 향상, 영업 현장 업무 효율성 극대화 등을 도모하고자 한다. 궁극적으로는 한화생명의 비전으로 제시된 ‘라이프 솔루션 AI’를 실현하려고 한다. 보험을 넘어 고객의 동반자로서 삶 전반에 도움을 주겠다는 것인데, 이를 실현할 수 있는 다양한 AI 서비스를 만들겠다”“최근 AI연구소가 국제 학술대회에서 ‘AI 기반 차익거래 모델’ 논문을 발표했다. 연구 성과가 자산·부채 관리에 적용되면 회사의 투자 전략 고도화에 기여할 수 있다. 그렇게 되면 금융소비자를 위한 퇴직연금이나 변액보험 등 운용에도 AI를 활용한 포트폴리오 최적화가 가능해진다. 상용화를 위해 고객 포트폴리오 선택에 도입하는 식으로의 방향 전환이 필요하다.”“오케스트레이터 에이전트와 AI 기여도 측정 시스템을 중점적으로 추진하려고 한다. AI 분야에서 작년의 키워드는 ‘AI 에이전트’였다. 올해는 오케스트레이션이 화두에 오를 것으로 보인다. 여러 업무에 적용되면 에이전트를 관리하는 에이전트인 ‘AI 오케스트레이터’도 필요하기 때문이다. 이에 더해 에이전트의 업무분장이나 계층 구조를 바꾸는 일종의 조직개편 관련 연구도 진행돼야 할 것 같다. 이에 더해 AI를 활용해 내놓은 결과물이 정말 사업에 기여하고 있는지 측정할 수 있는 시스템을 구축하려고 한다. 이 밖에 현재 제공하고 있는 다양한 서비스 고도화, 인공지능기본법 시행에 발맞춘 AI 거버넌스 개선 등을 추진할 계획이다.”</t>
+          <t>결국 이렇게 될 줄은 알았습니다. 네, 애플과 구글의 인공지능 협업 이야기입니다. 두 회사가 애플의 파운데이션 모델 설계의 기반 인프라로 제미나이와 구글 클라우드 등 구글의 기술을 쓰겠다고 공동 발표를 했습니다. 그러니까 애플 인텔리전스의 기본기가 제미나이를 비롯한 구글의 모델을 기반으로 다시 설계된다는 이야기로 보면 됩니다.
+“결국 애플이 인공지능 기술을 개발하는 데 실패했다”, “애플 AI의 위기가 드러났다” 등의 자극적인 코멘트들이 먼저 떠오를 겁니다. 하지만 이런 수준의 협업은 계속해서 예고되어 왔습니다. 두 회사의 선택은 자연스러운 결과이고, 서로가 얻을 수 있는 것들이 많습니다.
+애플과 구글이 발표한 건 무슨 내용?
+먼저 파운데이션 모델이 뭔지 부터 짚고 시작할 필요가 있습니다. 이제 인공지능, 특히 생성형 AI의 활용은 단순히 글을 쓰는 것을 넘어 이미지나 영상을 만들고, 대화를 바탕으로 이용자의 모든 맥락을 이해하는 단계로 접어들었습니다. 초기에는 언어 생성과 이미지, 영상 등 각각의 인공지능 기술이 쪼개져 있었습니다. 하지만 결국 그 기본은 컴퓨터와 소통하는 데에 있고, 이용자의 의도를 읽어 모든 서비스를 아우르는 기본 뼈대 역할을 하는 모델이 필요합니다.
+파운데이션 모델은 이름 그대로 ‘기본 뼈대’가 되는 모델입니다. 사실상 현재 모든 AI 서비스들은 각각의 파운데이션 모델을 갖고 있고, 이를 바탕으로 학습을 통해서 역할을 넓혀가는 방식을 쓰고 있습니다. 그리고 애플은 이 파운데이션 모델을 만드는 뼈대로 구글의 제미나이를 활용하겠다고 밝힌 것이지요.
+앞으로 애플은 개인의 맥락을 읽는 것부터 적절한 이메일 답장을 만들고, 인터넷에서 정보를 검색해서 새로운 지식 정보를 만들어주는 일련의 과정을 제미나이를 바탕으로 한 파운데이션 모델을 통해서 하게 됩니다.
+가장 큰 변화는 애플이 2024년 첫 발표 이후 2년 가까이 공들여 온 차세대 시리의 개인화에 있습니다. 애플은 아이폰을 비롯해 아이패드, 맥 등 모든 기기에 담기는 개인정보를 모아서 이용자의 모든 일상의 맥락을 읽는 것을 목표로 했습니다. 모든 정보를 이해하고 정보로 풀어내는 기본 인공지능 모델이 ‘애플 인텔리전스’이고, 그 분석 데이터를 기반으로 마주하고 소통하는 매개체가 ‘시리’가 됩니다.
+결국 애플 인텔리전스의 핵심은 시리가 직접 사람이 판단하는 수준으로 개인정보를 이해하도록 하는 데에 있습니다. 조금 늦어지긴 했지만 애플은 구글이라는 가장 확실한 방법을 선택했고, 이제 애플이 2024년 WWDC에서 선보인 애플 인텔리전스, 그리고 시리의 윤곽을 보여줄 겁니다.
+기존 애플 인텔리전스와 무슨 차이?
+그럼 애플 인텔리전스가 결국 제미나이인 걸까요? 그렇지 않습니다. 가장 헷갈리는 게 이 부분이기도 합니다. 애플이 만드는 파운데이션 모델은 제미나이와 전혀 다른 일을 하게 될 겁니다. 제미나이는 그 뒤에서 언어를 이해하고, 해야 할 것들, 그리고 세상의 지식 정보들을 받아들이는 기본 엔진의 역할을 합니다. 그리고 애플은 이를 이용해서 자체적인 역할과 정책을 기반으로 한 파운데이션 모델을 만드는 겁니다.
+같은 회사의 같은 엔진을 쓰는 자동차라고 해도 브랜드와 차량 성격에 따라 다른 성격을 내고, 결과적으로 다른 자동차가 되는 것을 떠올리면 됩니다. 애플과 구글은 인공지능 기반의 개인정보 어시스턴트가 데이터를 다루고, 우리를 돕는 과정과 방향성에 차이가 있습니다.
+애플은 개인정보를 보호하기 위해 데이터 전송이나 이용자 식별 없이 기기 내에서 맥락을 이해하는 모델을 개발해 왔습니다. 구글은 이용자가 쓰는 기기 뿐 아니라 인터넷 서비스를 이용하면서 만들어내는 모든 정보들을 연결해 더 광범위한 개인의 이해를 만들어내는 것을 목표로 하지요.
+제미나이를 도입했다고 해서 애플 인텔리전스의 성격이 바뀌는 건 아닙니다. 제미나이는 말을 더 잘 알아듣게 해주는 기반 역할에 가깝고, 애플은 그 위에서 디바이스 중심의 개인화 AI를 계속 만들어갑니다. 기기에서 처리하지 못하는 작업이 클라우드로 넘어가더라도, 애플이 설정한 원칙과 흐름은 그대로 유지됩니다.
+한 가지 더 좋은 것은 지식을 이용하는 과정입니다. 제미나이는 계속해서 고도화되며 세상의 많은 것들을 기억하고 있습니다. 지금까지 애플 인텔리전스는 기기 내부에서 처리할 수 있는 글 쓰기, 문장 다듬기 이외의 일들, 그러니까 우리가 인공지능 서비스들에 물어보는 세상의 지식 정보들은 챗GPT로 돌렸습니다. “이 내용은 GPT로 전송해서 결과를 받아볼까?”라고 묻곤 했지요. 이게 생각보다 번거로워서 검색의 흐름을 끊곤 했는데, 제미나이가 들어오면 이 검색 과정도 더 매끄러워질 겁니다.
+한 마디로 정리하자면 제미나이의 뼈대를 갖고 있고, 지식의 수준도 똑같이 깊지만 페르소나도, 데이터를 다루는 방법도, 이용자 개개인을 이해하는 과정도 전혀 다른 인공지능 모델이 나오는 것이라고 보면 됩니다.
+애플은 왜 제미나이를 선택했나?
+애플은 왜 GPT가 아니라 구글을 선택했을까요? 애플 입장에서 기술적으로 가장 안정된 모델, 그리고 최적의 서비스가 제미나이이기 때문입니다.
+제미나이는 지금 가장 빠르게 성장하는 생성형 AI 모델입니다. 구글은 사실 인공지능 시장에서 뒤처져 있었던 것이 아니라 어디까지, 무엇을 해야 하는지에 대한 고민을 오랫동안 이어 왔습니다. 과거 구글은 파격적인 인공지능 서비스들을 내놓을 때마다 AI에 대한 사회적 장벽에 부딪쳐 왔습니다. ‘우리의 개인정보를 이렇게까지 분석하는 거야?’, ‘인공지능이 감히 사람처럼 말을 해?’ 같은 식이지요.
+오픈AI는 이 부분을 깨 주었고, 세상은 그 마법에 빠져들었습니다. 구글 역시 더 자신있게 인공지능을 밀어부칠 수 있게 됐고, 제미나이 3.0을 통해서 그 동안 하고 싶었던 일들을 조심스럽게 합니다. 그리고 세상은 이를 거부감 없이 받아들였지요.
+그림을 그리는 ‘나노 바나나(Nano Banana)’를 비롯해 영상을 생성하는 비오(Veo)까지 직접 현실에서 활용되는 가장 파격적인 인공지능 모델을 만들어내고 있고, 그 결과물도 인정을 받고 있지요.
+더구나 구글은 자체적으로 개발한 인공지능 전용 프로세서인 TPU를 통해 안정적인 AI 서비스 환경을 갖췄습니다. 그리고 최근에는 이 TPU를 내부에만 쓰지 않고, 특별한 경우에 클라이언트가 직접 데이터센터에 설치해서 쓸 수 있도록 확장할 계획도 세웠습니다. 애플의 막대한 기기들이 쉴 새 없이 일으킬 AI 트래픽을 가장 잘 처리할 수 있는 기반 기술이 갖춰진 셈입니다. 두 회사의 협업이 제미나이 모델에 그치지 않고 구글 클라우드로 확장되는 게 바로 이런 이유입니다.
+물론 오픈AI도 최고의 기술력을 보여주고 있는 것은 사실이지만 구글의 서비스는 조금 더 조심스럽고 예측 가능한 면이 있습니다. 애플이 가장 중요하게 생각하는 ‘안전성’과 ‘환각(Hallucination) 최소화’라는 측면에서 구글의 모델은 가장 보수적으로 훈련되었고, 이는 스타트업의 문화를 바탕으로 거침없이 성장해 온 오픈AI보다 더 적절할 겁니다. 또한 애플과 구글의 오랜 협업이 이어져 온 만큼 구글은 애플의 개인정보와 데이터 정책에 대해서도 잘 이해하고 있지요.
+구글로서도 애플을 통해 모바일 시장 전체의 AI 기반 기술을 자랑할 수 있게 됐습니다. 당장의 수익을 떠나 장기적으로 구글이 바라보는 모바일의 인공지능 서비스 기반을 다지게 되는 것이지요.
+애플은 AI를 포기한 걸까?
+그럼 애플은 이제 AI를 포기한 걸까요? 그렇지 않습니다. 애플은 AI 경쟁에서 물러난 게 아니라, 잘하는 회사의 기반 기술을 받아들여 자신들의 방식으로 AI를 만들고 있습니다. 이는 iOS가 FreeBSD(유닉스 기반의 오픈소스 운영체제)를 기반으로 만들어졌지만, 그 결과물은 완전히 애플 고유의 운영체제가 된 것과 비슷합니다. 기반 기술을 썼다고 해서, 그 결과까지 남의 것이 되는 건 아니니까요.
+애플은 기본적으로 온 디바이스 모델을 지속적으로 만들어갈 겁니다. 그 뼈대가 구글의 것이라고 해도 문제가 될 건 없습니다. 애초 애플은 제미나이나 GPT 같은 모델을 만들 계획이 없었고, 그게 애플의 비즈니스에도 맞지 않습니다.
+대신 그걸 더 잘 하는 기업들과 협업을 통해 확장할 계획이었습니다. 현실적으로 애플이 당장 구글이나 오픈AI의 기술을 따라잡을 수 없다는 것 뿐 아니라 그게 애플의 비즈니스가 아니기 때문입니다. 애플은 여러 가지 서비스를 하지만 기본적으로 하드웨어 기업이고, 이를 유지하기 위해 생태계와 플랫폼을 중요하게 여겨 왔습니다. ‘함께 간다’는 것이지요. 그건 AI 시대에도 마찬가지입니다.
+아이폰이 막 나오던 20년 전을 되돌아볼까요? 애플이 구글 같은 인터넷 서비스를 하지 않는다고 해서 모바일 시장에 진입하지 못한다고 생각하는 사람은 없을 겁니다. 사실상 초기 아이폰의 성장은 애플의 하드웨어와 운영체제, 그리고 소프트웨어 생태계와 함께 구글의 모바일 인터넷과 지도, 유튜브 등 웹서비스의 결합으로 이뤄졌습니다.
+애플은 하드웨어와 플랫폼을, 구글은 소프트웨어와 웹 서비스를 가장 잘 하는 기업입니다. 두 회사의 사업이 결국은 겹쳐보이는 부분이 없지는 않지만 애플은 더 나은 하드웨어 경험을 위해 소프트웨어를, 구글은 더 나은 소프트웨어 경험을 위해 하드웨어를 만든다고 볼 수 있습니다.
+인공지능도 마찬가지입니다. 애플은 하드웨어, 플랫폼 기업입니다. 아이폰을 돋보이게 하는 것에 가장 힘을 쏟고 있지요. 이를 위해서는 기기 자체에서 더 많은 온 디바이스 인공지능 서비스를 제공하면서도, 외부의 가장 좋은 서비스를 받아들입니다. 앱 스토어에 올라오는 앱을 통해서 아이폰의 기능이 넓어지는 것처럼 구글의 AI를 통해 더 나은 경험을 만드는 것이지요. 그리고 애플은 필요에 따라 언제든 GPT, 클로드, 그록 등의 모델을 받아들일 수 있습니다.
+이제 우리는 어떤 아이폰을 만나게 될까?
+오래 기다렸습니다. 2024년 6월 WWDC에서 애플 인텔리전스가 발표됐을 때의 흥분이 지금도 떠오릅니다. 온디바이스 AI와 개인정보 보호를 중심에 두고, 다른 서비스에 대한 개방성까지 갖고 있는 ‘가장 애플다운 AI 서비스’를 내놓았으니 말이지요. 심지어 애플 인텔리전스의 앞글자를 따면 ‘AI’이니, 이를 규정하는 마케팅적인 부분까지 완벽하다고 느꼈습니다.
+하지만 세상은 애플이 오픈AI나 구글, 앤트로픽 등과 어깨를 나란히 하고 경쟁하길 바랐습니다. 재미있는 경쟁이 되겠지만 애플은 개인정보와 사생활 보호라는 대 원칙을 통해 인공지능 시대에도 신뢰를 얻는 것을 목표로 세웠고, 광범위한 학습을 처리해야 하는 대규모 언어 모델 기반 비즈니스는 충돌이 일어날 수밖에 없습니다.
+애플의 선택은 더 기기에 집중하는 것으로 더 깊은 개인화를 하는 것이었고, 이제 구글을 통해서 그 목표에 한 걸음 가까이 섰습니다. 여러분도 지금 느끼는 제미나이의 놀라움을 더 안전하고 개인화해서 쓰고 싶은 마음이 있을 겁니다. 애플은 늘 하던 대로 예측할 수 있는 가장 애플다운 방법으로 애플 인텔리전스를 만들었고, 앞으로도 이 방향으로 키워 갈 겁니다. 물론 언젠가는 완전히 자체적으로 개발한 파운데이션 모델을 내놓을 수도 있을테고요.
+물론 이런 애플의 방향이, 또 구글의 방향이 어느 딱 하나가 정답이 되지는 않을 겁니다. 다만 지금 두 가지 접근 방법이 모두 필요한 것은 사실이고, 마침 두 회사가 손을 잡았다는 것은 커다란 의미가 있습니다. 올해 6월 WWDC는 정말 재미있을 겁니다.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">

--- a/output/selected_news.xlsx
+++ b/output/selected_news.xlsx
@@ -473,49 +473,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>증권사</t>
+          <t>보험사</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>토스증권</t>
+          <t>메리츠화재</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"AI 뉴스는 책임없다"…토스증권, 손실 고객에 상품권 '입단속'? - 뷰어스</t>
+          <t>설계사 5000명 시대 연다…에즈금융서비스, DB·AI 결합으로 성장 가속 - 보험저널</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fri, 23 Jan 2026 06:21:38 GMT</t>
+          <t>Thu, 15 Jan 2026 08:00:00 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://theviewers.co.kr/View.aspx?No=3951903</t>
+          <t>https://www.insjournal.co.kr/news/articleView.html?idxno=29760</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(사진=토스증권)
-토스증권이 최근 발생한 인공지능(AI) 뉴스 오류 사고와 관련해 투자자 피해보상 책임을 외면하고 있다는 주장이 제기됐다. 해당 투자자는 22일 뷰어스와 통화에서 "토스증권이 상품권에 이어 수수료 무료 제안을 하면서 '입단속'까지 요구했다"며 주장했다.
-지난 13일 토스증권은 오후 4시 30분경 나스닥 상장사 파월 맥스(PMAX) 종목 뉴스로 희토류 호재 기사를 게시했다. 이 기사를 접한 투자자 A씨는 오후 8시26분 약 1000만원어치 파월 맥스 주식을 매수했다.
-문제는 토스증권의 AI 자동 분류 오류로 인해 티커는 동일하지만 다른 종목(파워 맥스 미네랄, PMAX)에 대한 뉴스가 잘못 게재된 것. 이를 확인한 토스증권은 해당 뉴스를 9시30분경 삭제했지만 이미 투자자들은 매수를 마친 시점이었다. A씨 역시 뒤늦게 오류를 확인한 뒤 11시 5분 매도했으나 약 100만원 손해를 입었다.
-A씨는 이와 관련해 토스증권 고객센터에 항의했다. A씨는 "토스증권은 해당일 '매매 장애가 아니라 AI를 통한 단순 정보 제공이므로 관련 책임이 있다고 보기 어렵다'고 답했다"며 "이후 재차 연락을 통해 투자 유의사항이 사전에 안내돼 있어 귀책이 불명확하다는 안내를 받았다"고 말했다.
-(토스증권 종목 뉴스 최하단에 위치한 유의사항, 사진=토스증권 MTS)
-토스증권이 언급한 AI 뉴스 관련 경고문은 모바일트레이딩시스템(MTS)상 뉴스 본문과 주요 뉴스, 관련 주식 항목 등이 안내된 화면 최하단에 배치돼 있다. 사실 면밀히 살피지 않는한 투자자가 직관적으로 인지하기 어려운 위치다.
-토스증권이 이에 대해 제시한 보상 대안 역시 투자자 입장에선 납득하기 어렵다는 게 A씨 입장이다. A씨는 "책임이 없어 전액 배상이 어렵다는 반응에 손실액의 10~20% 수준 보상을 제안했으나 받아들여지지 않았다"며 "사고 배상이 아닌, 도의적 차원에서 상품권 2만원을 제공하겠다는 답변과 함께 언론 제보 자제 요청을 해와 기가 찼다"고 전해왔다.
-그는 "항의를 계속하자 상품권 금액을 2만원에서 3만원으로 올리고, 한 달간 수수료 무료 혜택을 주겠다는 제안이 추가됐다"며 "뚜렷한 보상 기준도 없고, 최근 사고가 난 '쿠팡 보상안'처럼 자사 서비스를 영업한다는 인상을 받았다"고 덧붙였다.
-이에 대해 토스증권 관계자는 뷰어스와 통화에서 "매매장애로 인한 피해 보상기준은 마련돼 있지만, 이번 AI 오류는 예외적 케이스인만큼 내부적으로 기준을 검토 중"이라며 "거래와 직결되지 않는 부분이라 보상 수준이 변동됐다"고 해명했다.
-AI뉴스 경고문을 인지하기 어렵게 배치한 뒤 책임을 회피한다는 비판에 대해선 "당사만의 문제가 아니라 은행의 주가연계증권(ELS) 판매에서도 드러난 금융권 전반 문제"라며 "원칙적으로 투자 책임은 투자자 본인에게 있다"고 답했다.
-토스증권은 피해금액 전액 보상이 불가한 이유로 '과도한 배상에 따른 위법 소지'를 근거로 들고 있다. 투자 손실보전을 금지하는 자본시장법 제55조에 따르면 '투자자가 입을 손실의 전부 또는 일부를 보전해 줄 것을 사전에 약속하거나 사후에 보전해주는 행위'를 금지하고 있다. 이는 투자자의 자기책임 원칙과 건전한 시장 질서를 유지하기 위한 법령이다.
-다만 손실보전 금지 조항이 전액 배상을 일률적으로 금지한 것은 아니란 해석도 나온다.
-금융감독원 관계자는 해당 사안에 대해 "해당 조항에는 정당한 사유가 있다면 배상이 가능하다는 취지가 포함돼 있다"며 "분쟁조정이 접수될 경우 토스증권이 제공한 정보와 고객의 투자 의사 결정 간 인과관계 여부가 쟁점이 될 것"이라고 답했다.</t>
+          <t>※유튜브 채널 '보험저널TV'를 구독하면 더 많은 영상을 보실 수 있습니다.(https://youtube.com/channel/UC6v10hcO7KLhWBNYZE4vkDQ)
+GA 업계 전반에서 조직 성장 속도가 둔화되는 흐름 속에서 에즈(AZ)금융서비스가 빠른 외형 확장을 이어가며 주목받고 있다. 지난해 말 기준 에즈금융서비스의 소속 설계사 수는 약 4700명으로, 불과 1년 전 3000명 수준이었던 것과 비교하면 단기간에 1700명가량 증가했다.
+지난해 말 기준 대면 조직 37개 지점, TM 5개 지점, 하이브리드 6개 지점을 운영 중인 에즈금융서비스는 서울 영등포를 중심으로 확장이 이어지고 있으며, 지방의 경우 4대 광역시를 거점으로 조직 확장이 활발하게 진행되고 있다. 지사제도 역시 전국 단위로 안착 단계에 접어들며 조직 저변을 넓혀가고 있다.
+최근 1~2년간의 성과를 살펴보면 설계사 수 증가가 가장 두드러진다. 현재도 매달 200명 안팎의 신인 설계사가 위촉되고 있으며, TM 채널 역시 지속적인 성장 흐름을 이어가고 있다. 에즈금융서비스는 기존 지사제 GA들이 안고 있던 불투명한 정산 구조와 조직 운영의 한계를 개선한 ‘98지사제’ 채널을 통해 보다 투명한 수수료 체계를 구축했고, 이를 기반으로 안정적인 성장 궤도에 올랐다는 설명이다.
+사업 모델 측면에서 에즈금융서비스의 차별화 포인트는 신인 설계사 중심의 리크루팅 전략과 체계적인 교육 시스템이다. 회사는 ‘보맵’을 비롯한 빅테크 플랫폼과의 제휴를 통해 신인과 경력 설계사 모두에게 양질의 고객 DB를 제공하고 있다. 이를 통해 설계사들이 고객 발굴에 대한 부담을 줄이고 영업 활동에 보다 집중할 수 있는 환경을 조성했다.
+설계사 정착과 생산성 제고를 위한 운영 구조도 특징적이다. 대면 영업, 데이터 기반 영업, 디지털 기반 영업을 유연하게 병행할 수 있도록 시스템을 구축해 각 조직의 강점을 살리는 방식이다. 에즈금융서비스는 이러한 구조를 통해 설계사가 특정 영업 방식에 국한되지 않고 다각적인 역량을 갖춘 ‘육각형 설계사’로 성장할 수 있도록 지원하고 있으며, 이는 전반적인 생산성 개선으로 이어지고 있다는 분석이다.
+경쟁 GA와 비교했을 때 인프라와 시스템 경쟁력도 강점으로 꼽힌다. 최첨단 시스템이 적용된 사옥을 비롯해 투명한 수수료 구조, 업계 최초로 도입한 ‘보맵 플래너’ 앱 기반 AI 영업 지원 솔루션, 빅테크 플랫폼을 통한 DB 제공 등이 대표적이다. 여기에 설계사를 위한 구내식당 ‘어메이징 키친’ 운영, 농구장과 축구장, 리조트 이용 등 복지 인프라도 함께 마련해 조직 만족도를 높이고 있다.
+실제로 설계사들이 에즈금융서비스를 선택하는 이유로는 영업 환경과 기업 문화가 가장 많이 언급된다. 누구나 리더로 성장할 수 있는 기회가 열려 있고, 개인의 노력과 성과가 공정하게 반영되는 투명한 문화 속에서 성장에만 집중할 수 있다는 점이 조직 선택의 주요 요인으로 작용하고 있다는 설명이다.
+규제 환경 변화에 대한 대응 역시 성장 전략의 중요한 축이다. 에즈금융서비스는 1200%룰과 제3자 리스크 관리 가이드 도입에 대응해 일시금 지원 중심의 리크루팅을 지양하고 있다. 대신 AI 상담 코칭 시스템과 고객 발굴 DB 지원 등 시스템 기반의 가치 제공을 통해 리크루팅 경쟁력을 높이고 있다. 리스크 관리 측면에서는 판매 이전 단계부터 완전판매가 이뤄질 수 있도록 청약 스크린 기능을 강화하고, 보험사와의 협력을 통해 초기 리스크 대응 체계를 고도화하고 있다.
+내부통제와 소비자 보호 체계도 강화했다. 월별 정기 점검과 상시 모니터링 시스템을 통해 리스크를 선제적으로 관리하고 있으며, CCO를 중심으로 한 독립된 소비자 보호 조직을 운영해 완전판매 교육과 준법 감시를 정례화했다. 불완전판매 유발 요인을 사전에 차단하는 데 주력하는 한편, 금융보안원 회원사로서 고객 개인정보 보호 체계 강화에도 힘을 쏟고 있다.
+향후 에즈금융서비스는 AI 기반 영업 지원 체계 고도화를 핵심 과제로 삼고 있다. AI 영업 지원 솔루션을 통해 고객별 맞춤형 제안을 정착시키고, 설계사의 영업 효율을 높이는 데 주력할 계획이다. 단기적인 조직 확대에만 초점을 맞추기보다 설계사의 질적 성장을 병행하며, 디지털 기반 교육 커리큘럼을 강화해 FC 개개인이 보험 전문가로 성장할 수 있도록 지원한다는 방침이다.
+회사는 단기 실적보다 지속 가능한 성장을 위해 ‘양질의 설계사 양성’을 가장 중요한 요소로 꼽고 있다. 설계사의 성장이 곧 회사의 성장이라는 인식을 바탕으로, 잘 성장한 설계사가 고객에게 보다 나은 서비스를 제공하고 고객 감동으로 이어지는 선순환 구조를 구축하는 것이 목표다.
+에즈금융서비스는 ‘보험 그 이상을 하다’라는 슬로건 아래 설계사와 고객 모두가 만족할 수 있는 GA를 지향하고 있다. 어느 한쪽에 치우친 성장이 아닌, 소속 설계사와 회사, 그리고 고객이 함께 성장하는 구조를 통해 업계에서 신뢰받는 GA로 기억되기를 바란다는 설명이다. 회사 측은 “에즈금융서비스 설계사는 고객의 신뢰를 최우선으로 삼아 고객의 생애를 관리하는 든든한 동반자가 되기 위해 언제나 최선을 다할 것”이라고 밝혔다.</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -531,166 +530,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>삼성화재·DB손해보험, 시니어 눈높이 맞춘다 …“비대면 서비스서 AI 챗봇보다 ARS·직통 상담” - 시사오늘</t>
+          <t>삼성화재도 가세…뜨거워지는 ‘N잡러’ 보험설계사 시장 [한양경제] - kyeonggi.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mon, 19 Jan 2026 22:30:00 GMT</t>
+          <t>Wed, 14 Jan 2026 02:37:00 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.sisaon.co.kr/news/articleView.html?idxno=179692</t>
+          <t>https://www.kyeonggi.com/article/20260114580119</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>모바일 금융 이용 늘었지만 체감 난이도는 여전… 고령층 ‘AI 장벽’
-큰 글씨·ARS·화면 공유까지… 보험사, 상담 접근성 강화
-[시사오늘·시사ON·시사온=이지원 기자]
-삼성화재가 고령층 고객을 위해 신설한 ‘시니어 친화형 모바일 서비스’ 어플 화면 이미지. ⓒ삼성화재
-보험사 모바일 플랫폼에서 AI 챗봇과 자동화된 비대면 시스템이 고령 가입자들에게 높은 진입 장벽으로 작용하고 있다는 분석이 나온다. 이에 삼성화재와 DB손해보험, 신한라이프 등 주요 보험사들은 AI 중심 구조를 보완하고 ARS 및 상담원 직통 연결을 전면에 내세운 전용 모드를 도입하며 시니어 마케팅을 강화하고 있다.
-20일 업계에 따르면 AI 기반 비대면 업무가 금융 앱의 기본 기능으로 자리 잡은 보험업계는 효율성과 비용 절감을 앞세운 디지털 전환 전략의 속도를 일부 조절하는 모습이다. 고령층 고객을 중심으로 상담원 연결에 대한 실질적인 수요가 여전히 높게 유지되고 있기 때문이다.
-한국은행이 발표한 ‘2024년 모바일 금융서비스 이용행태 조사’에 따르면 60대 이상 모바일 금융 이용률은 53.8%로 절반을 넘어섰다. 스마트폰을 활용한 금융 접근성은 확대됐지만, 실제 이용 과정에서의 체감 난이도는 여전히 높다는 평가다.
-한국지능정보사회진흥원의 ‘2024 디지털 정보격차 실태조사’에서는 고령층의 77.7%가 디지털 금융 서비스 이용에 어려움을 느낀다고 응답했다. 업계에서는 복잡한 본인 인증 절차와 AI 챗봇 중심의 응대 구조가 고령층에게는 여전히 진입 장벽으로 작용하고 있다고 본다.
-특히 보험 상품은 보장 구조가 복잡해 단순 문의와 달리 전문가를 통한 설명과 확인 과정이 필요하다는 지적이 나온다.
-이 같은 변화는 금융당국의 정책 기조와도 맞물려 있다. 금융감독원은 지난 2022년 ‘고령자 친화적 모바일 금융 앱 구성 지침’을 마련하며 가독성 강화와 직관적 서비스 제공을 권고했다.
-이에 따라 일부 보험사들은 AI 중심의 비대면 구조를 유지하되, 상담원이 개입할 수 있는 ‘중간 지점’을 설계하는 방향으로 전략으로 재설계하고 있다.
-삼성화재는 지난 2023년 말 도입한 ‘시니어 친화형 모바일 서비스’를 고도화했다. 큰 글씨 모드와 1화면 1기능 설계를 적용해 인지 부담을 낮췄으며, 모든 과정에서 즉시 상담원과 연결할 수 있는 버튼을 전면에 배치했다.
-DB손해보험은 2024년 도입한 ‘간편모드’를 통해 계약 조회부터 보험금 청구까지 전 과정에 상담원 지원 기능을 통합했다. 이용 과정에서 어려움이 발생할 경우 즉시 상담원의 도움을 받을 수 있도록 설계됐다는 것이다.
-신한라이프 또한 고령층 고객을 위한 전용 ARS 번호를 운영하고, 상담원 연결 단계를 대폭 축소하는 등 '패스트트랙' 서비스를 강화하고 있다.
-천상영 신한라이프 사장은 2일 열린 ‘2026년 경영전략회의’에서 “AI 전환과 디지털 혁신을 통해 고객 접점의 편의성을 높이고, 시니어 사업 등 신규 성장 기반을 확대해 변화하는 금융 환경에 선제적으로 대응하겠다”고 말했다.
-한화생명과 교보생명은 상담원이 고객의 모바일 화면을 실시간으로 함께 보며 안내하는 ‘공동 브라우징’(Co-browsing) 서비스를 통해 디지털 소외 계층의 업무 완결성을 높이고 있다.
-보험사들이 디지털 채널의 효율성보다 인적 서비스를 강화하는 이러한 배경에는 시니어 계층의 시장 내 영향력이 자리하고 있다는 분석이다.
-국가데이터처와 한국은행이 발표한 ‘2025년 가계금융복지조사’에 따르면 50대 가구의 평균 자산은 6억6205만 원으로 전 연령대 중 가장 많았고, 60대 이상 가구 역시 평균 자산이 6억 원을 넘어섰다.
-업계에서는 젊은 층의 보험 신규 가입이 정체된 반면, 고령층의 보험 수요와 유지 비중은 꾸준히 확대되고 있는 것으로 보고 있다. 건강보험공단 통계 기준 고령층은 전체 진료비에서 차지하는 비중이 높아 건강 관리와 보장성 보험에 대한 관심도도 높은 편에 속하다는 것이다.
-보험업계 관계자는 “시니어 대상 서비스 강화는 단순한 편의 제공 차원을 넘어선 전략적 선택”이라며 “AI 자동화가 확대될수록 상담원을 통한 설명과 신뢰 형성이 장기 계약 유지와 브랜드 충성도를 좌우하는 요소로 작용하고 있다”고 말했다.
-저작권자 © 시사오늘(시사ON) 무단전재 및 재배포 금지</t>
+          <t>가 가 가 가 가
+정우성 기자 wooseongcheong@hanyangeconomy.com 기자페이지
+메리츠·롯데손보 이어 삼성화재도 ‘N잡크루’ 선보여 신규 영업인력 안정적 확보·개인사업자 초기투자부담↓ 부업 성격 강해 계약자 관리 소홀 우려도
+이 기사는 종합경제매체 한양경제 기사입니다
+삼성화재가 최근 선보인 N잡 설계사 조직 N잡크루. 삼성화재
+보험설계사 시장에 ‘N잡’ 바람이 거세다.
+비대면 영업 플랫폼을 앞세운 보험사들이 본업을 유지한 채 부업으로 보험을 판매하는 이른바 ‘N잡러’ 설계사 유치에 본격적으로 나서면서, 전통적인 설계사 조직 구조가 빠르게 재편되고 있다.
+보험사는 신규 영업 인력을 안정적으로 확보하고, 개인은 초기 투자 없이 추가 소득을 얻을 수 있는 ‘상생 구조’가 형성되고 있다는 평가다.
+손해보험업계에 따르면 삼성화재는 최근 N잡러 전용 설계사 조직인 ‘N잡크루’를 선보였다. 직장인·프리랜서 등 다양한 직군이 시간과 장소 제약 없이 설계사로 활동할 수 있도록 설계한 조직이다. 교육 신청부터 자격시험 준비, 설계사 등록까지 전 과정을 비대면으로 운영하는 것이 핵심이다. 전담 멘토 배정, 자격시험 응시료 지원, 전속 설계사와 동일한 교육 콘텐츠 제공 등을 통해 진입 장벽을 낮췄다.
+이미 시장을 선점한 곳은 메리츠화재다. 메리츠화재는 2024년 3월 비대면 영업 플랫폼 ‘메리츠 파트너스’를 도입해 N잡러 설계사 육성에 속도를 냈다. 모바일 앱을 활용해 학습과 계약 체결, 고객 관리까지 가능하도록 한 이 플랫폼에는 현재 수천 명의 설계사가 등록돼 있으며, 일부는 월 수백만~수천만 원의 수수료 수입을 올리고 있다.
+메리츠화재의 전속 설계사 수는 손보업계 최초로 4만 명을 돌파하며 외형 확장의 성과도 가시화됐다.
+롯데손해보험 역시 ‘원더(wonder)’라는 모바일 기반 영업지원 플랫폼을 통해 N잡 설계사 시장에 뛰어들었다. 입문 교육과 모의고사, 자격시험 준비는 물론 설계·청약·고객 관리까지 앱 하나로 가능하도록 구현했다. 출시 1년여 만에 수천 명의 N잡 설계사를 확보하며 빠르게 세를 넓히고 있다.
+이 같은 흐름은 단기 유행을 넘어 구조적 변화로 해석된다. IFRS17 도입 이후 보장성 보험 중심의 판매 경쟁이 심화되면서, 보험상품 구조는 더욱 복잡해졌고 이에 따라 설계사의 역할과 수요는 오히려 커졌기 때문이다. 비대면 플랫폼은 이러한 수요를 충족하면서도 인력 확보 비용을 낮출 수 있는 대안으로 자리 잡고 있다.
+다만 우려의 시선도 있다. 부업 성격이 강한 N잡 설계사의 경우 활동 지속성이 낮아 계약자 관리가 소홀해질 수 있다는 지적이다. 이에 대해 보험사들은 전담 멘토 운영, 정기 교육, 내부 관리 시스템 강화를 통해 불완전판매 위험을 최소화하고 있다는 입장이다.
+업계 전문가는 “전문직이나 본업과 연계 가능한 인력의 경우 오히려 시너지가 크다”며 “N잡 설계사는 기존 전속 설계사를 대체하기보다는 보완하는 역할로 자리 잡을 것”이라고 말했다.
+이어 “비대면 플랫폼을 누가 더 정교하게 구축하고, 설계사의 지속성을 어떻게 높이느냐가 향후 보험사 영업 경쟁력의 핵심 변수로 작용할 것”이라고 덧붙였다.
+© 경기일보(www.kyeonggi.com), 무단전재 및 수집, 재배포금지</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>보험사</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>구글</t>
+          <t>DB손해보험</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>애플 AI가 구글 제미나이와 손 잡은 이유 - 디에디트</t>
+          <t>‘성장 한계’ 보험업계, 외국인에 러브콜 - 경향신문</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed, 14 Jan 2026 08:00:00 GMT</t>
+          <t>Mon, 26 Jan 2026 12:10:00 GMT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://the-edit.co.kr/83357</t>
+          <t>https://www.khan.co.kr/article/202601262110015/amp</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>결국 이렇게 될 줄은 알았습니다. 네, 애플과 구글의 인공지능 협업 이야기입니다. 두 회사가 애플의 파운데이션 모델 설계의 기반 인프라로 제미나이와 구글 클라우드 등 구글의 기술을 쓰겠다고 공동 발표를 했습니다. 그러니까 애플 인텔리전스의 기본기가 제미나이를 비롯한 구글의 모델을 기반으로 다시 설계된다는 이야기로 보면 됩니다.
-“결국 애플이 인공지능 기술을 개발하는 데 실패했다”, “애플 AI의 위기가 드러났다” 등의 자극적인 코멘트들이 먼저 떠오를 겁니다. 하지만 이런 수준의 협업은 계속해서 예고되어 왔습니다. 두 회사의 선택은 자연스러운 결과이고, 서로가 얻을 수 있는 것들이 많습니다.
-애플과 구글이 발표한 건 무슨 내용?
-먼저 파운데이션 모델이 뭔지 부터 짚고 시작할 필요가 있습니다. 이제 인공지능, 특히 생성형 AI의 활용은 단순히 글을 쓰는 것을 넘어 이미지나 영상을 만들고, 대화를 바탕으로 이용자의 모든 맥락을 이해하는 단계로 접어들었습니다. 초기에는 언어 생성과 이미지, 영상 등 각각의 인공지능 기술이 쪼개져 있었습니다. 하지만 결국 그 기본은 컴퓨터와 소통하는 데에 있고, 이용자의 의도를 읽어 모든 서비스를 아우르는 기본 뼈대 역할을 하는 모델이 필요합니다.
-파운데이션 모델은 이름 그대로 ‘기본 뼈대’가 되는 모델입니다. 사실상 현재 모든 AI 서비스들은 각각의 파운데이션 모델을 갖고 있고, 이를 바탕으로 학습을 통해서 역할을 넓혀가는 방식을 쓰고 있습니다. 그리고 애플은 이 파운데이션 모델을 만드는 뼈대로 구글의 제미나이를 활용하겠다고 밝힌 것이지요.
-앞으로 애플은 개인의 맥락을 읽는 것부터 적절한 이메일 답장을 만들고, 인터넷에서 정보를 검색해서 새로운 지식 정보를 만들어주는 일련의 과정을 제미나이를 바탕으로 한 파운데이션 모델을 통해서 하게 됩니다.
-가장 큰 변화는 애플이 2024년 첫 발표 이후 2년 가까이 공들여 온 차세대 시리의 개인화에 있습니다. 애플은 아이폰을 비롯해 아이패드, 맥 등 모든 기기에 담기는 개인정보를 모아서 이용자의 모든 일상의 맥락을 읽는 것을 목표로 했습니다. 모든 정보를 이해하고 정보로 풀어내는 기본 인공지능 모델이 ‘애플 인텔리전스’이고, 그 분석 데이터를 기반으로 마주하고 소통하는 매개체가 ‘시리’가 됩니다.
-결국 애플 인텔리전스의 핵심은 시리가 직접 사람이 판단하는 수준으로 개인정보를 이해하도록 하는 데에 있습니다. 조금 늦어지긴 했지만 애플은 구글이라는 가장 확실한 방법을 선택했고, 이제 애플이 2024년 WWDC에서 선보인 애플 인텔리전스, 그리고 시리의 윤곽을 보여줄 겁니다.
-기존 애플 인텔리전스와 무슨 차이?
-그럼 애플 인텔리전스가 결국 제미나이인 걸까요? 그렇지 않습니다. 가장 헷갈리는 게 이 부분이기도 합니다. 애플이 만드는 파운데이션 모델은 제미나이와 전혀 다른 일을 하게 될 겁니다. 제미나이는 그 뒤에서 언어를 이해하고, 해야 할 것들, 그리고 세상의 지식 정보들을 받아들이는 기본 엔진의 역할을 합니다. 그리고 애플은 이를 이용해서 자체적인 역할과 정책을 기반으로 한 파운데이션 모델을 만드는 겁니다.
-같은 회사의 같은 엔진을 쓰는 자동차라고 해도 브랜드와 차량 성격에 따라 다른 성격을 내고, 결과적으로 다른 자동차가 되는 것을 떠올리면 됩니다. 애플과 구글은 인공지능 기반의 개인정보 어시스턴트가 데이터를 다루고, 우리를 돕는 과정과 방향성에 차이가 있습니다.
-애플은 개인정보를 보호하기 위해 데이터 전송이나 이용자 식별 없이 기기 내에서 맥락을 이해하는 모델을 개발해 왔습니다. 구글은 이용자가 쓰는 기기 뿐 아니라 인터넷 서비스를 이용하면서 만들어내는 모든 정보들을 연결해 더 광범위한 개인의 이해를 만들어내는 것을 목표로 하지요.
-제미나이를 도입했다고 해서 애플 인텔리전스의 성격이 바뀌는 건 아닙니다. 제미나이는 말을 더 잘 알아듣게 해주는 기반 역할에 가깝고, 애플은 그 위에서 디바이스 중심의 개인화 AI를 계속 만들어갑니다. 기기에서 처리하지 못하는 작업이 클라우드로 넘어가더라도, 애플이 설정한 원칙과 흐름은 그대로 유지됩니다.
-한 가지 더 좋은 것은 지식을 이용하는 과정입니다. 제미나이는 계속해서 고도화되며 세상의 많은 것들을 기억하고 있습니다. 지금까지 애플 인텔리전스는 기기 내부에서 처리할 수 있는 글 쓰기, 문장 다듬기 이외의 일들, 그러니까 우리가 인공지능 서비스들에 물어보는 세상의 지식 정보들은 챗GPT로 돌렸습니다. “이 내용은 GPT로 전송해서 결과를 받아볼까?”라고 묻곤 했지요. 이게 생각보다 번거로워서 검색의 흐름을 끊곤 했는데, 제미나이가 들어오면 이 검색 과정도 더 매끄러워질 겁니다.
-한 마디로 정리하자면 제미나이의 뼈대를 갖고 있고, 지식의 수준도 똑같이 깊지만 페르소나도, 데이터를 다루는 방법도, 이용자 개개인을 이해하는 과정도 전혀 다른 인공지능 모델이 나오는 것이라고 보면 됩니다.
-애플은 왜 제미나이를 선택했나?
-애플은 왜 GPT가 아니라 구글을 선택했을까요? 애플 입장에서 기술적으로 가장 안정된 모델, 그리고 최적의 서비스가 제미나이이기 때문입니다.
-제미나이는 지금 가장 빠르게 성장하는 생성형 AI 모델입니다. 구글은 사실 인공지능 시장에서 뒤처져 있었던 것이 아니라 어디까지, 무엇을 해야 하는지에 대한 고민을 오랫동안 이어 왔습니다. 과거 구글은 파격적인 인공지능 서비스들을 내놓을 때마다 AI에 대한 사회적 장벽에 부딪쳐 왔습니다. ‘우리의 개인정보를 이렇게까지 분석하는 거야?’, ‘인공지능이 감히 사람처럼 말을 해?’ 같은 식이지요.
-오픈AI는 이 부분을 깨 주었고, 세상은 그 마법에 빠져들었습니다. 구글 역시 더 자신있게 인공지능을 밀어부칠 수 있게 됐고, 제미나이 3.0을 통해서 그 동안 하고 싶었던 일들을 조심스럽게 합니다. 그리고 세상은 이를 거부감 없이 받아들였지요.
-그림을 그리는 ‘나노 바나나(Nano Banana)’를 비롯해 영상을 생성하는 비오(Veo)까지 직접 현실에서 활용되는 가장 파격적인 인공지능 모델을 만들어내고 있고, 그 결과물도 인정을 받고 있지요.
-더구나 구글은 자체적으로 개발한 인공지능 전용 프로세서인 TPU를 통해 안정적인 AI 서비스 환경을 갖췄습니다. 그리고 최근에는 이 TPU를 내부에만 쓰지 않고, 특별한 경우에 클라이언트가 직접 데이터센터에 설치해서 쓸 수 있도록 확장할 계획도 세웠습니다. 애플의 막대한 기기들이 쉴 새 없이 일으킬 AI 트래픽을 가장 잘 처리할 수 있는 기반 기술이 갖춰진 셈입니다. 두 회사의 협업이 제미나이 모델에 그치지 않고 구글 클라우드로 확장되는 게 바로 이런 이유입니다.
-물론 오픈AI도 최고의 기술력을 보여주고 있는 것은 사실이지만 구글의 서비스는 조금 더 조심스럽고 예측 가능한 면이 있습니다. 애플이 가장 중요하게 생각하는 ‘안전성’과 ‘환각(Hallucination) 최소화’라는 측면에서 구글의 모델은 가장 보수적으로 훈련되었고, 이는 스타트업의 문화를 바탕으로 거침없이 성장해 온 오픈AI보다 더 적절할 겁니다. 또한 애플과 구글의 오랜 협업이 이어져 온 만큼 구글은 애플의 개인정보와 데이터 정책에 대해서도 잘 이해하고 있지요.
-구글로서도 애플을 통해 모바일 시장 전체의 AI 기반 기술을 자랑할 수 있게 됐습니다. 당장의 수익을 떠나 장기적으로 구글이 바라보는 모바일의 인공지능 서비스 기반을 다지게 되는 것이지요.
-애플은 AI를 포기한 걸까?
-그럼 애플은 이제 AI를 포기한 걸까요? 그렇지 않습니다. 애플은 AI 경쟁에서 물러난 게 아니라, 잘하는 회사의 기반 기술을 받아들여 자신들의 방식으로 AI를 만들고 있습니다. 이는 iOS가 FreeBSD(유닉스 기반의 오픈소스 운영체제)를 기반으로 만들어졌지만, 그 결과물은 완전히 애플 고유의 운영체제가 된 것과 비슷합니다. 기반 기술을 썼다고 해서, 그 결과까지 남의 것이 되는 건 아니니까요.
-애플은 기본적으로 온 디바이스 모델을 지속적으로 만들어갈 겁니다. 그 뼈대가 구글의 것이라고 해도 문제가 될 건 없습니다. 애초 애플은 제미나이나 GPT 같은 모델을 만들 계획이 없었고, 그게 애플의 비즈니스에도 맞지 않습니다.
-대신 그걸 더 잘 하는 기업들과 협업을 통해 확장할 계획이었습니다. 현실적으로 애플이 당장 구글이나 오픈AI의 기술을 따라잡을 수 없다는 것 뿐 아니라 그게 애플의 비즈니스가 아니기 때문입니다. 애플은 여러 가지 서비스를 하지만 기본적으로 하드웨어 기업이고, 이를 유지하기 위해 생태계와 플랫폼을 중요하게 여겨 왔습니다. ‘함께 간다’는 것이지요. 그건 AI 시대에도 마찬가지입니다.
-아이폰이 막 나오던 20년 전을 되돌아볼까요? 애플이 구글 같은 인터넷 서비스를 하지 않는다고 해서 모바일 시장에 진입하지 못한다고 생각하는 사람은 없을 겁니다. 사실상 초기 아이폰의 성장은 애플의 하드웨어와 운영체제, 그리고 소프트웨어 생태계와 함께 구글의 모바일 인터넷과 지도, 유튜브 등 웹서비스의 결합으로 이뤄졌습니다.
-애플은 하드웨어와 플랫폼을, 구글은 소프트웨어와 웹 서비스를 가장 잘 하는 기업입니다. 두 회사의 사업이 결국은 겹쳐보이는 부분이 없지는 않지만 애플은 더 나은 하드웨어 경험을 위해 소프트웨어를, 구글은 더 나은 소프트웨어 경험을 위해 하드웨어를 만든다고 볼 수 있습니다.
-인공지능도 마찬가지입니다. 애플은 하드웨어, 플랫폼 기업입니다. 아이폰을 돋보이게 하는 것에 가장 힘을 쏟고 있지요. 이를 위해서는 기기 자체에서 더 많은 온 디바이스 인공지능 서비스를 제공하면서도, 외부의 가장 좋은 서비스를 받아들입니다. 앱 스토어에 올라오는 앱을 통해서 아이폰의 기능이 넓어지는 것처럼 구글의 AI를 통해 더 나은 경험을 만드는 것이지요. 그리고 애플은 필요에 따라 언제든 GPT, 클로드, 그록 등의 모델을 받아들일 수 있습니다.
-이제 우리는 어떤 아이폰을 만나게 될까?
-오래 기다렸습니다. 2024년 6월 WWDC에서 애플 인텔리전스가 발표됐을 때의 흥분이 지금도 떠오릅니다. 온디바이스 AI와 개인정보 보호를 중심에 두고, 다른 서비스에 대한 개방성까지 갖고 있는 ‘가장 애플다운 AI 서비스’를 내놓았으니 말이지요. 심지어 애플 인텔리전스의 앞글자를 따면 ‘AI’이니, 이를 규정하는 마케팅적인 부분까지 완벽하다고 느꼈습니다.
-하지만 세상은 애플이 오픈AI나 구글, 앤트로픽 등과 어깨를 나란히 하고 경쟁하길 바랐습니다. 재미있는 경쟁이 되겠지만 애플은 개인정보와 사생활 보호라는 대 원칙을 통해 인공지능 시대에도 신뢰를 얻는 것을 목표로 세웠고, 광범위한 학습을 처리해야 하는 대규모 언어 모델 기반 비즈니스는 충돌이 일어날 수밖에 없습니다.
-애플의 선택은 더 기기에 집중하는 것으로 더 깊은 개인화를 하는 것이었고, 이제 구글을 통해서 그 목표에 한 걸음 가까이 섰습니다. 여러분도 지금 느끼는 제미나이의 놀라움을 더 안전하고 개인화해서 쓰고 싶은 마음이 있을 겁니다. 애플은 늘 하던 대로 예측할 수 있는 가장 애플다운 방법으로 애플 인텔리전스를 만들었고, 앞으로도 이 방향으로 키워 갈 겁니다. 물론 언젠가는 완전히 자체적으로 개발한 파운데이션 모델을 내놓을 수도 있을테고요.
-물론 이런 애플의 방향이, 또 구글의 방향이 어느 딱 하나가 정답이 되지는 않을 겁니다. 다만 지금 두 가지 접근 방법이 모두 필요한 것은 사실이고, 마침 두 회사가 손을 잡았다는 것은 커다란 의미가 있습니다. 올해 6월 WWDC는 정말 재미있을 겁니다.</t>
+          <t>내국인 시장 포화에 저출생…국내 체류 외국인 대상 영업 강화 AI 통역 서비스·신원 확인 간편화, 외국인 보험설계사도 늘려
+보험업계가 최근 국내 체류 외국인 고객을 대상으로 한 통역 서비스를 강화하고 신원 확인 간편화에 나서는 등 관련 영업을 강화하고 있다.
+인구구조 변화에 따른 성장 한계를 돌파하기 위해 외국인 고객에게 눈을 돌리고 있는 것이다.
+26일 보험업계에 따르면 국내 체류 외국인을 대상으로 한 보험사 전략은 그간 이주노동자, 유학생, 여행자 등 특정 계층을 대상으로 한 상품 판매 자체에 초점을 맞췄다. 하지만 최근에는 가입 상담 시 통역 서비스를 강화하고 신원 확인 절차의 부담을 줄여주는 등 편의를 높여주는 전략도 활용하고 있다.
+특히 외국인 고객들을 위한 통번역 서비스는 최근 인공지능(AI)의 도입과 함께 빠르게 확대되고 있다.
+DB손해보험, 한화생명을 비롯한 일부 보험사들은 상담 등의 절차에 AI를 이용한 다국어 통역이나 문서 번역 시스템을 적용해 외국인 고객이 느낄 수 있는 언어 장벽을 낮추고 있다. 외국어가 가능한 상담인력도 적극적으로 운영하고 있다.
+외국인 보험설계사도 늘고 있다. 보험사들은 국내에 체류하는 외국인들이 늘자 이들을 설계사로 양성해왔는데, 외국인 고객을 상대로 한 상품 설명이나 계약 관리에 강점이 있어 그 중요성이 최근 커지고 있다.
+한화생명과 한화생명금융서비스의 경우 지난해 외국인 보험설계사가 약 1600명에 달했다.
+비대면으로 보험에 가입하려는 외국인을 위해 신원 확인 절차를 간편화하는 사례도 나타나고 있다.
+삼성생명의 경우 외국인 고객을 위해 외국인등록증과 모바일 외국인등록증까지 본인 확인 수단으로 활용하고 있다. 외국인들이 비대면으로 거래할 때는 인증이 어려워 추가 확인이 필요하거나, 상황에 따라서는 오프라인 창구에 직접 방문해야 하는 경우도 있었는데 이런 고충을 해소해주겠다는 취지다.
+외국인 고객 유치를 모색하는 보험사들의 움직임에는 저출생 등으로 내국인 인구는 감소하는 반면, 국내 체류 외국인 수는 매년 역대 최고치를 경신하는 추세가 반영됐다.
+업계 관계자는 “내국인 보험시장은 포화 상태이고 저출생으로 신규 수요도 제한적이다 보니 상대적으로 빠르게 성장하는 외국인 시장이 중요해진 것”이라고 설명했다.
+보험개발원에 따르면 생명보험, 장기손해보험, 자동차보험 중 1개 이상의 상품에 가입한 외국인은 2022년 기준으로 약 69만명이었으며 보험가입률은 내국인의 절반 수준인 41%가량이었다.
+보험개발원은 20~30대 장기체류 외국인이 여전히 증가하는 추세인 만큼 외국인 대상 영업은 국내 보험산업에 기회가 될 것으로 보고 있다.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>은행</t>
+          <t>카드사</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>하나카드</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>국내 주요 은행별 AI 도입 현황 : 신한은행 - AI 선도 은행의 종합 전략 - 핀테크투데이</t>
+          <t>라이브데이터, AI 에이전트 포털 ‘에이전트팟’ 출시...다양한 AI 에이전트, 하나의 포털에서 제공 - 인공지능신문</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fri, 16 Jan 2026 07:08:40 GMT</t>
+          <t>Wed, 14 Jan 2026 08:00:00 GMT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.fintechtoday.co.kr/news/articleView.html?idxno=2392</t>
+          <t>https://www.aitimes.kr/news/articleView.html?idxno=38127</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>기자명 핀테크투데이
-국내 주요 은행별 AI 도입 현황
-신한은행 - AI 선도 은행의 종합 전략
-신한은행은 국내에서 가장 적극적으로 AI를 도입한 은행 중 하나입니다. OpenAI GPT 모델을 업무망에 연계한 생성형 AI 금융지식 Q&amp;A 서비스는 10만 건 이상의 은행 상품, 규정, 절차를 학습하여 직원들의 상담 전문성을 크게 향상시켰습니다.
-AI 브랜치 외에도 'AI Studio' 플랫폼으로 감성 분석, 이상 외화송금 탐지 등 다양한 AI 서비스를 통합 운영하고 있습니다. 직원용 AI 업무비서 'AI ONE'은 내부 프로세스를 최적화하여 업무 속도와 정확성을 동시에 개선했습니다.
-신한은행의 AI 도입 현황(요약)
-신한은행의 AI 도입은 ①영업점(오프라인 채널) 혁신, ②직원 업무 생산성/자동화, ③금융 심사·리스크/컴플라이언스 고도화, ④AI 인프라(데이터센터) 투자로 정리할 수 있습니다.
-1) 생성형 AI를 핵심 업무(심사)까지 확장
-신한은행은 **OpenAI GPT 모델을 적용한 ‘수출환어음 매입 AI 심사 서비스’**를 출시했다고 밝힌 바 있습니다. 이는 생성형 AI를 단순 상담/검색을 넘어 실제 심사 프로세스에 접목한 사례로 볼 수 있습니다. Source
-2) 오프라인 채널: AI 브랜치/AI 창구 등 ‘AI 기반 점포’ 실험
-신한은행은 AI 기술을 적용한 무인 점포(‘AI 브랜치’) 및 지점 내 별도 ‘AI 창구’ 운영 등으로, 오프라인 점포의 셀프·자동화 방향을 강화하는 흐름이 보도되었습니다. 특히 AI 창구에서 계좌/체크카드 발급, 환전 등 간단한 은행 업무 처리를 지원하고, 향후 대출 상담까지 확대 계획이 언급됩니다. Source
-3) 직원 업무 혁신: RPA + AI-OCR 기반 대규모 자동화(알파봇)
-신한은행은 영업점 업무에서 **RPA(알파봇)**를 운영하고, **AI-OCR(문자인식)**을 결합해 신청서류 변환·처리 등 반복 업무를 자동화한 사례가 소개됐습니다. 기사에서는 월 평균 1만1000건·1만3400시간 수준의 업무 자동화 등 구체적 수치도 언급됩니다. Source
-4) AI 인프라 투자: ‘AI 데이터센터’ 구축(그룹 전략 인프라)
-신한은행은 남양주시와 협력해 AI 데이터센터를 구축하겠다는 계획을 공개했습니다. 그룹 차원의 ‘금융 AI 대전환’ 전략을 뒷받침하는 핵심 인프라로 활용한다는 취지이며, 2027년 착공~2029년 준공 일정이 제시돼 있습니다. Source
-5) 외부 파트너십: 생성형 AI·무인점포 고도화 협력
-해외 보도에서는 신한은행이 효성TNS, LG CNS와 함께 생성형 AI 모델 공동 개발, AI+디지털 디바이스 기반 무인뱅킹 고도화, 지속 협업 플랫폼 운영 등을 추진한다고 전했습니다. Source</t>
+          <t>시연 화면
+인공지능(AI) 스타트업 라이브데이터가 누구나 쉽고 재미있게 사용할 수 있는 AI 에이전트 통합 플랫폼 ‘에이전트팟(AgentPod)’을 14일 정식 출시했다. 에이전트팟은 다양한 AI 에이전트를 하나의 포털에서 제공하는 B2C 특화 서비스로, 일반 사용자들도 별도의 프롬프트 작성 없이 자연스럽게 AI 서비스를 이용할 수 있도록 설계되었다.
+라이브데이터에 따르면 현재 대부분의 AI 서비스는 각기 다른 가입 절차와 사용법으로 진입 장벽이 높았으나, 에이전트팟은 단일 플랫폼에서 필요한 AI 에이전트를 선택해 사용할 수 있는 통합형 UX를 갖춘 것이 특징이다.
+에이전트팟은 포털형 큐레이션, 한국 문화 특화 콘텐츠, 공유 기능 강화, 유연한 크레딧 과금 체계 등 사용자 친화적 설계를 핵심으로 한다. 홈 화면에서 원하는 에이전트를 바로 선택해 대화를 시작할 수 있고, 별도의 전문 지식이나 복잡한 입력 없이도 AI 응답을 얻을 수 있다.
+출시에 맞춰 제공되는 대표 에이전트로는 ‘사주 전문가’와 ‘타로 마스터’가 있다. ‘사주 전문가’는 사용자의 운세와 사주 정보를 개인별로 해석해 주며, 톤 설정 기능을 통해 친근한 설명이나 직설적 분석 등 다양한 스타일로 결과를 제공한다. ‘타로 마스터’는 카드 선택부터 리딩까지 인터랙티브하게 체험할 수 있으며, 결과를 시각적 카드 이미지로 제공해 SNS 공유가 가능하다.
+특히 에이전트팟 사용자는 AI와 주고받은 대화를 공유 링크로 외부에 배포하거나, 숏폼 동영상 콘텐츠로 자동 생성해 인스타그램·틱톡 등 SNS에 업로드할 수 있다. 또한 커뮤니티 게시판과 인기 차트 기능을 통해 다른 이용자 경험을 참고하고 소통할 수 있다.
+과금 모델은 크레딧 기반 과금을 채택했으며, 오프라인 상담이나 체험 대비 부담을 낮춘 합리적인 비용으로 사용량에 따라 유연하게 이용할 수 있다. 또한 서비스 오픈을 기념으로 신규 가입자를 대상으로 무료 크레딧도 제공된다.
+라이브데이터 최진형 CPO는 “AI가 이제 전문가만의 도구가 아니라 일상에서 누구나 사용하는 플랫폼으로 자리 잡아야 한다”라며 “에이전트팟을 통해 사용자 중심의 AI 경험을 확대하고, 향후 여행·교육·건강 등 다양한 분야로 확장할 것”이라고 말했다.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/output/selected_news.xlsx
+++ b/output/selected_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,72 +478,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>메리츠화재</t>
+          <t>삼성화재</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>설계사 5000명 시대 연다…에즈금융서비스, DB·AI 결합으로 성장 가속 - 보험저널</t>
+          <t>삼성화재도 가세…뜨거워지는 ‘N잡러’ 보험설계사 시장 [한양경제] - kyeonggi.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thu, 15 Jan 2026 08:00:00 GMT</t>
+          <t>Wed, 14 Jan 2026 02:37:00 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.insjournal.co.kr/news/articleView.html?idxno=29760</t>
+          <t>https://www.kyeonggi.com/article/20260114580119</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>※유튜브 채널 '보험저널TV'를 구독하면 더 많은 영상을 보실 수 있습니다.(https://youtube.com/channel/UC6v10hcO7KLhWBNYZE4vkDQ)
-GA 업계 전반에서 조직 성장 속도가 둔화되는 흐름 속에서 에즈(AZ)금융서비스가 빠른 외형 확장을 이어가며 주목받고 있다. 지난해 말 기준 에즈금융서비스의 소속 설계사 수는 약 4700명으로, 불과 1년 전 3000명 수준이었던 것과 비교하면 단기간에 1700명가량 증가했다.
-지난해 말 기준 대면 조직 37개 지점, TM 5개 지점, 하이브리드 6개 지점을 운영 중인 에즈금융서비스는 서울 영등포를 중심으로 확장이 이어지고 있으며, 지방의 경우 4대 광역시를 거점으로 조직 확장이 활발하게 진행되고 있다. 지사제도 역시 전국 단위로 안착 단계에 접어들며 조직 저변을 넓혀가고 있다.
-최근 1~2년간의 성과를 살펴보면 설계사 수 증가가 가장 두드러진다. 현재도 매달 200명 안팎의 신인 설계사가 위촉되고 있으며, TM 채널 역시 지속적인 성장 흐름을 이어가고 있다. 에즈금융서비스는 기존 지사제 GA들이 안고 있던 불투명한 정산 구조와 조직 운영의 한계를 개선한 ‘98지사제’ 채널을 통해 보다 투명한 수수료 체계를 구축했고, 이를 기반으로 안정적인 성장 궤도에 올랐다는 설명이다.
-사업 모델 측면에서 에즈금융서비스의 차별화 포인트는 신인 설계사 중심의 리크루팅 전략과 체계적인 교육 시스템이다. 회사는 ‘보맵’을 비롯한 빅테크 플랫폼과의 제휴를 통해 신인과 경력 설계사 모두에게 양질의 고객 DB를 제공하고 있다. 이를 통해 설계사들이 고객 발굴에 대한 부담을 줄이고 영업 활동에 보다 집중할 수 있는 환경을 조성했다.
-설계사 정착과 생산성 제고를 위한 운영 구조도 특징적이다. 대면 영업, 데이터 기반 영업, 디지털 기반 영업을 유연하게 병행할 수 있도록 시스템을 구축해 각 조직의 강점을 살리는 방식이다. 에즈금융서비스는 이러한 구조를 통해 설계사가 특정 영업 방식에 국한되지 않고 다각적인 역량을 갖춘 ‘육각형 설계사’로 성장할 수 있도록 지원하고 있으며, 이는 전반적인 생산성 개선으로 이어지고 있다는 분석이다.
-경쟁 GA와 비교했을 때 인프라와 시스템 경쟁력도 강점으로 꼽힌다. 최첨단 시스템이 적용된 사옥을 비롯해 투명한 수수료 구조, 업계 최초로 도입한 ‘보맵 플래너’ 앱 기반 AI 영업 지원 솔루션, 빅테크 플랫폼을 통한 DB 제공 등이 대표적이다. 여기에 설계사를 위한 구내식당 ‘어메이징 키친’ 운영, 농구장과 축구장, 리조트 이용 등 복지 인프라도 함께 마련해 조직 만족도를 높이고 있다.
-실제로 설계사들이 에즈금융서비스를 선택하는 이유로는 영업 환경과 기업 문화가 가장 많이 언급된다. 누구나 리더로 성장할 수 있는 기회가 열려 있고, 개인의 노력과 성과가 공정하게 반영되는 투명한 문화 속에서 성장에만 집중할 수 있다는 점이 조직 선택의 주요 요인으로 작용하고 있다는 설명이다.
-규제 환경 변화에 대한 대응 역시 성장 전략의 중요한 축이다. 에즈금융서비스는 1200%룰과 제3자 리스크 관리 가이드 도입에 대응해 일시금 지원 중심의 리크루팅을 지양하고 있다. 대신 AI 상담 코칭 시스템과 고객 발굴 DB 지원 등 시스템 기반의 가치 제공을 통해 리크루팅 경쟁력을 높이고 있다. 리스크 관리 측면에서는 판매 이전 단계부터 완전판매가 이뤄질 수 있도록 청약 스크린 기능을 강화하고, 보험사와의 협력을 통해 초기 리스크 대응 체계를 고도화하고 있다.
-내부통제와 소비자 보호 체계도 강화했다. 월별 정기 점검과 상시 모니터링 시스템을 통해 리스크를 선제적으로 관리하고 있으며, CCO를 중심으로 한 독립된 소비자 보호 조직을 운영해 완전판매 교육과 준법 감시를 정례화했다. 불완전판매 유발 요인을 사전에 차단하는 데 주력하는 한편, 금융보안원 회원사로서 고객 개인정보 보호 체계 강화에도 힘을 쏟고 있다.
-향후 에즈금융서비스는 AI 기반 영업 지원 체계 고도화를 핵심 과제로 삼고 있다. AI 영업 지원 솔루션을 통해 고객별 맞춤형 제안을 정착시키고, 설계사의 영업 효율을 높이는 데 주력할 계획이다. 단기적인 조직 확대에만 초점을 맞추기보다 설계사의 질적 성장을 병행하며, 디지털 기반 교육 커리큘럼을 강화해 FC 개개인이 보험 전문가로 성장할 수 있도록 지원한다는 방침이다.
-회사는 단기 실적보다 지속 가능한 성장을 위해 ‘양질의 설계사 양성’을 가장 중요한 요소로 꼽고 있다. 설계사의 성장이 곧 회사의 성장이라는 인식을 바탕으로, 잘 성장한 설계사가 고객에게 보다 나은 서비스를 제공하고 고객 감동으로 이어지는 선순환 구조를 구축하는 것이 목표다.
-에즈금융서비스는 ‘보험 그 이상을 하다’라는 슬로건 아래 설계사와 고객 모두가 만족할 수 있는 GA를 지향하고 있다. 어느 한쪽에 치우친 성장이 아닌, 소속 설계사와 회사, 그리고 고객이 함께 성장하는 구조를 통해 업계에서 신뢰받는 GA로 기억되기를 바란다는 설명이다. 회사 측은 “에즈금융서비스 설계사는 고객의 신뢰를 최우선으로 삼아 고객의 생애를 관리하는 든든한 동반자가 되기 위해 언제나 최선을 다할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>보험사</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>삼성화재</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>삼성화재도 가세…뜨거워지는 ‘N잡러’ 보험설계사 시장 [한양경제] - kyeonggi.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Wed, 14 Jan 2026 02:37:00 GMT</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.kyeonggi.com/article/20260114580119</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>가 가 가 가 가
 정우성 기자 wooseongcheong@hanyangeconomy.com 기자페이지
@@ -564,98 +517,48 @@
 © 경기일보(www.kyeonggi.com), 무단전재 및 수집, 재배포금지</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>보험사</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>“유병자도 쉽게 가입”…현대해상, 간편건강보험 광고 공개 - 매일경제</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thu, 15 Jan 2026 08:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.mk.co.kr/news/economy/11934156</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>사진 확대 현대해상이 15일 간편건강보험 신규 광고를 공개했다. [현대해상]
+현대해상이 보험 가입 문턱을 낮춘 메시지를 담은 간편건강보험 신규 TV 광고 ‘현대해상은 간편하지’편을 15일 공개했다.
+이번 광고는 ‘유병자들의 걱정을 덜어주는 보험’이라는 키 메시지로 제작됐다. 현대해상은 과거 병력이나 건강 이력으로 보험 가입을 망설이는 고객들에게 현대해상 간편건강보험을 통해서는 유병자도 간편하게 가입 가능하다는 메시지를 전달하는 데 중점을 뒀다.
+광고는 유병자들의 보험가입에 대한 심리·절차적 부담을 ‘허들’로 표현해 근심걱정이 가득한 사람들을 조명한다. 하지만 몇 가지 질문만으로 간편하게 가입 가능한 인공지능(AI) 자동 심사 프로세스를 통해 유병자들도 ‘허들’을 쉽게 뛰어넘을 수 있게 한 현대해상 간편건강보험 상품의 특징과 장점을 전달한다.
+현대해상 관계자는“유병자 고객들의 현실적인 고민에 공감하고 보험 가입의 문턱을 낮추고자 한 현대해상의 마음을 전달하고자 했다”며 “현대해상 간편건강보험의 AI 자동 심사 프로세스를 통해 간편한 가입으로 다양한 보장을 경험하기를 기대한다”고 밝혔다.
+한편 해당 광고는 현대해상 유튜브 채널과 TV 등 다양한 매체를 통해 확인할 수 있다.</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>보험사</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DB손해보험</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>‘성장 한계’ 보험업계, 외국인에 러브콜 - 경향신문</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon, 26 Jan 2026 12:10:00 GMT</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.khan.co.kr/article/202601262110015/amp</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>내국인 시장 포화에 저출생…국내 체류 외국인 대상 영업 강화 AI 통역 서비스·신원 확인 간편화, 외국인 보험설계사도 늘려
-보험업계가 최근 국내 체류 외국인 고객을 대상으로 한 통역 서비스를 강화하고 신원 확인 간편화에 나서는 등 관련 영업을 강화하고 있다.
-인구구조 변화에 따른 성장 한계를 돌파하기 위해 외국인 고객에게 눈을 돌리고 있는 것이다.
-26일 보험업계에 따르면 국내 체류 외국인을 대상으로 한 보험사 전략은 그간 이주노동자, 유학생, 여행자 등 특정 계층을 대상으로 한 상품 판매 자체에 초점을 맞췄다. 하지만 최근에는 가입 상담 시 통역 서비스를 강화하고 신원 확인 절차의 부담을 줄여주는 등 편의를 높여주는 전략도 활용하고 있다.
-특히 외국인 고객들을 위한 통번역 서비스는 최근 인공지능(AI)의 도입과 함께 빠르게 확대되고 있다.
-DB손해보험, 한화생명을 비롯한 일부 보험사들은 상담 등의 절차에 AI를 이용한 다국어 통역이나 문서 번역 시스템을 적용해 외국인 고객이 느낄 수 있는 언어 장벽을 낮추고 있다. 외국어가 가능한 상담인력도 적극적으로 운영하고 있다.
-외국인 보험설계사도 늘고 있다. 보험사들은 국내에 체류하는 외국인들이 늘자 이들을 설계사로 양성해왔는데, 외국인 고객을 상대로 한 상품 설명이나 계약 관리에 강점이 있어 그 중요성이 최근 커지고 있다.
-한화생명과 한화생명금융서비스의 경우 지난해 외국인 보험설계사가 약 1600명에 달했다.
-비대면으로 보험에 가입하려는 외국인을 위해 신원 확인 절차를 간편화하는 사례도 나타나고 있다.
-삼성생명의 경우 외국인 고객을 위해 외국인등록증과 모바일 외국인등록증까지 본인 확인 수단으로 활용하고 있다. 외국인들이 비대면으로 거래할 때는 인증이 어려워 추가 확인이 필요하거나, 상황에 따라서는 오프라인 창구에 직접 방문해야 하는 경우도 있었는데 이런 고충을 해소해주겠다는 취지다.
-외국인 고객 유치를 모색하는 보험사들의 움직임에는 저출생 등으로 내국인 인구는 감소하는 반면, 국내 체류 외국인 수는 매년 역대 최고치를 경신하는 추세가 반영됐다.
-업계 관계자는 “내국인 보험시장은 포화 상태이고 저출생으로 신규 수요도 제한적이다 보니 상대적으로 빠르게 성장하는 외국인 시장이 중요해진 것”이라고 설명했다.
-보험개발원에 따르면 생명보험, 장기손해보험, 자동차보험 중 1개 이상의 상품에 가입한 외국인은 2022년 기준으로 약 69만명이었으며 보험가입률은 내국인의 절반 수준인 41%가량이었다.
-보험개발원은 20~30대 장기체류 외국인이 여전히 증가하는 추세인 만큼 외국인 대상 영업은 국내 보험산업에 기회가 될 것으로 보고 있다.</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>카드사</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>하나카드</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>라이브데이터, AI 에이전트 포털 ‘에이전트팟’ 출시...다양한 AI 에이전트, 하나의 포털에서 제공 - 인공지능신문</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Wed, 14 Jan 2026 08:00:00 GMT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.aitimes.kr/news/articleView.html?idxno=38127</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>시연 화면
-인공지능(AI) 스타트업 라이브데이터가 누구나 쉽고 재미있게 사용할 수 있는 AI 에이전트 통합 플랫폼 ‘에이전트팟(AgentPod)’을 14일 정식 출시했다. 에이전트팟은 다양한 AI 에이전트를 하나의 포털에서 제공하는 B2C 특화 서비스로, 일반 사용자들도 별도의 프롬프트 작성 없이 자연스럽게 AI 서비스를 이용할 수 있도록 설계되었다.
-라이브데이터에 따르면 현재 대부분의 AI 서비스는 각기 다른 가입 절차와 사용법으로 진입 장벽이 높았으나, 에이전트팟은 단일 플랫폼에서 필요한 AI 에이전트를 선택해 사용할 수 있는 통합형 UX를 갖춘 것이 특징이다.
-에이전트팟은 포털형 큐레이션, 한국 문화 특화 콘텐츠, 공유 기능 강화, 유연한 크레딧 과금 체계 등 사용자 친화적 설계를 핵심으로 한다. 홈 화면에서 원하는 에이전트를 바로 선택해 대화를 시작할 수 있고, 별도의 전문 지식이나 복잡한 입력 없이도 AI 응답을 얻을 수 있다.
-출시에 맞춰 제공되는 대표 에이전트로는 ‘사주 전문가’와 ‘타로 마스터’가 있다. ‘사주 전문가’는 사용자의 운세와 사주 정보를 개인별로 해석해 주며, 톤 설정 기능을 통해 친근한 설명이나 직설적 분석 등 다양한 스타일로 결과를 제공한다. ‘타로 마스터’는 카드 선택부터 리딩까지 인터랙티브하게 체험할 수 있으며, 결과를 시각적 카드 이미지로 제공해 SNS 공유가 가능하다.
-특히 에이전트팟 사용자는 AI와 주고받은 대화를 공유 링크로 외부에 배포하거나, 숏폼 동영상 콘텐츠로 자동 생성해 인스타그램·틱톡 등 SNS에 업로드할 수 있다. 또한 커뮤니티 게시판과 인기 차트 기능을 통해 다른 이용자 경험을 참고하고 소통할 수 있다.
-과금 모델은 크레딧 기반 과금을 채택했으며, 오프라인 상담이나 체험 대비 부담을 낮춘 합리적인 비용으로 사용량에 따라 유연하게 이용할 수 있다. 또한 서비스 오픈을 기념으로 신규 가입자를 대상으로 무료 크레딧도 제공된다.
-라이브데이터 최진형 CPO는 “AI가 이제 전문가만의 도구가 아니라 일상에서 누구나 사용하는 플랫폼으로 자리 잡아야 한다”라며 “에이전트팟을 통해 사용자 중심의 AI 경험을 확대하고, 향후 여행·교육·건강 등 다양한 분야로 확장할 것”이라고 말했다.</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/output/selected_news.xlsx
+++ b/output/selected_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,47 +478,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성화재</t>
+          <t>DB손해보험</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>삼성화재도 가세…뜨거워지는 ‘N잡러’ 보험설계사 시장 [한양경제] - kyeonggi.com</t>
+          <t>[2026 보험, 위기와 기회] DB손해보험, '경영효율' 기반 글로벌 도약 - 메트로신문</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wed, 14 Jan 2026 02:37:00 GMT</t>
+          <t>Sat, 17 Jan 2026 23:25:09 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.kyeonggi.com/article/20260114580119</t>
+          <t>https://www.metroseoul.co.kr/article/20260118500008</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>가 가 가 가 가
-정우성 기자 wooseongcheong@hanyangeconomy.com 기자페이지
-메리츠·롯데손보 이어 삼성화재도 ‘N잡크루’ 선보여 신규 영업인력 안정적 확보·개인사업자 초기투자부담↓ 부업 성격 강해 계약자 관리 소홀 우려도
-이 기사는 종합경제매체 한양경제 기사입니다
-삼성화재가 최근 선보인 N잡 설계사 조직 N잡크루. 삼성화재
-보험설계사 시장에 ‘N잡’ 바람이 거세다.
-비대면 영업 플랫폼을 앞세운 보험사들이 본업을 유지한 채 부업으로 보험을 판매하는 이른바 ‘N잡러’ 설계사 유치에 본격적으로 나서면서, 전통적인 설계사 조직 구조가 빠르게 재편되고 있다.
-보험사는 신규 영업 인력을 안정적으로 확보하고, 개인은 초기 투자 없이 추가 소득을 얻을 수 있는 ‘상생 구조’가 형성되고 있다는 평가다.
-손해보험업계에 따르면 삼성화재는 최근 N잡러 전용 설계사 조직인 ‘N잡크루’를 선보였다. 직장인·프리랜서 등 다양한 직군이 시간과 장소 제약 없이 설계사로 활동할 수 있도록 설계한 조직이다. 교육 신청부터 자격시험 준비, 설계사 등록까지 전 과정을 비대면으로 운영하는 것이 핵심이다. 전담 멘토 배정, 자격시험 응시료 지원, 전속 설계사와 동일한 교육 콘텐츠 제공 등을 통해 진입 장벽을 낮췄다.
-이미 시장을 선점한 곳은 메리츠화재다. 메리츠화재는 2024년 3월 비대면 영업 플랫폼 ‘메리츠 파트너스’를 도입해 N잡러 설계사 육성에 속도를 냈다. 모바일 앱을 활용해 학습과 계약 체결, 고객 관리까지 가능하도록 한 이 플랫폼에는 현재 수천 명의 설계사가 등록돼 있으며, 일부는 월 수백만~수천만 원의 수수료 수입을 올리고 있다.
-메리츠화재의 전속 설계사 수는 손보업계 최초로 4만 명을 돌파하며 외형 확장의 성과도 가시화됐다.
-롯데손해보험 역시 ‘원더(wonder)’라는 모바일 기반 영업지원 플랫폼을 통해 N잡 설계사 시장에 뛰어들었다. 입문 교육과 모의고사, 자격시험 준비는 물론 설계·청약·고객 관리까지 앱 하나로 가능하도록 구현했다. 출시 1년여 만에 수천 명의 N잡 설계사를 확보하며 빠르게 세를 넓히고 있다.
-이 같은 흐름은 단기 유행을 넘어 구조적 변화로 해석된다. IFRS17 도입 이후 보장성 보험 중심의 판매 경쟁이 심화되면서, 보험상품 구조는 더욱 복잡해졌고 이에 따라 설계사의 역할과 수요는 오히려 커졌기 때문이다. 비대면 플랫폼은 이러한 수요를 충족하면서도 인력 확보 비용을 낮출 수 있는 대안으로 자리 잡고 있다.
-다만 우려의 시선도 있다. 부업 성격이 강한 N잡 설계사의 경우 활동 지속성이 낮아 계약자 관리가 소홀해질 수 있다는 지적이다. 이에 대해 보험사들은 전담 멘토 운영, 정기 교육, 내부 관리 시스템 강화를 통해 불완전판매 위험을 최소화하고 있다는 입장이다.
-업계 전문가는 “전문직이나 본업과 연계 가능한 인력의 경우 오히려 시너지가 크다”며 “N잡 설계사는 기존 전속 설계사를 대체하기보다는 보완하는 역할로 자리 잡을 것”이라고 말했다.
-이어 “비대면 플랫폼을 누가 더 정교하게 구축하고, 설계사의 지속성을 어떻게 높이느냐가 향후 보험사 영업 경쟁력의 핵심 변수로 작용할 것”이라고 덧붙였다.
-© 경기일보(www.kyeonggi.com), 무단전재 및 수집, 재배포금지</t>
+          <t>DB손해보험은 새해 경영 키워드로 '경영효율 우위 기반의 글로벌 보험회사 도약'을 제시했다. 국내에선 손해율 등 본업 수익성의 변동성을 낮추고, 해외에선 미국 특화보험사 포테그라(Fortegra) 인수를 축으로 성장 모델과 이익 규모를 키우겠다는 구상이다.
+정종표 DB손해보험 사장./DB손해보험
+◆ 본업 흔들림 '숫자'로 확인
+DB손해보험의 올해 과제는 '성장'보다 수익구조의 안정화에 가깝다. 2025년 3분기 누적 기준 DB손해보험의 당기순이익은 1조1999억원으로 전년 동기(1조5780억원) 대비 3781억원 감소했다.
+손익의 결은 엇갈렸다. 같은 기간 보험손익은 7725억원으로 전년 동기 대비 6861억원 줄었고, 투자손익은 8897억원으로 2702억원 늘었다. 본업(보험) 둔화를 투자 성과가 일부 상쇄한 구조다. 보험손익을 보종별로 보면 장기손해보험 8004억원, 자동차보험 218억원, 일반보험 -497억원으로 집계됐다.
+정종표 DB손해보험 사장은 2026년 신년사에서 장기보험에 대해 "신계약 수익성 제고"와 "손해율 경쟁우위 확보를 위한 상품·언더라이팅(U/W) 전략"을, 자동차보험에 대해 "적정보험료 확보 및 U/W 강화"를 전면에 둔 배경도 이 같은 숫자 흐름과 맞물린다.
+건전성은 '방어'가 핵심이다. 2025년 3분기 기준 DB손해보험의 K-ICS(지급여력) 비율은 226.45%로 공시됐다. 금리·유동성 변동성이 커지는 환경에서 정종표 사장이 "유동성 및 금리하락 대응 투자손익 관리 강화"를 별도 과제로 언급한 것도 같은 맥락이다.
+DB손해보험 사옥./DB손해보험
+◆ 포테그라·AI Impact·소비자보호
+DB손해보험의 '글로벌'은 선언이 아니라 거래로 이어졌다. DB손해보험은 2025년 9월 미국 특화보험사 포테그라 발행주식 100%를 16억5000만달러(약 2조3000억원)에 인수하는 계약을 체결했다. 2026년 상반기 중 거래를 마무리할 것으로 예상된다.
+정종표 사장은 "포테그라 인수를 성공적으로 마무리하고 관리체계를 조기에 구축"하겠다고 선언했다. 미주 사업은 매출 규모에 걸맞은 수익 규모를 확보하고, 베트남은 합병 시너지를 통해 연결손익에 기여하도록 하겠다는 목표다.
+AI는 '도입'이 아니라 전사 생산성·효율화 과제(AI Impact)가 꼽힌다. 신년사에 'AI 기반 생산성·효율화 제고'가 비용구조 재설계와 함께 묶인 만큼, 2026년에는 현업 프로세스 단위의 체감 성과가 관전 포인트가 될 전망이다.
+실행 사례는 이미 나왔다. DB손해보험은 2025년 8월 AI 전문기업 티쓰리큐(T3Q)와 온톨로지 기반 '보상(청구) 자동화' 협력을 발표해 개념검증(PoC) 추진을 언급했다. 장기보험 보상청구 자동화는 DB손해보험이 업계 최초로 시도하는 도전적인 사업이다.
+마지막 축은 감독당국의 소비자 중심 제도 개혁 기조에 맞춘 소비자보호 강화다.
+정종표 사장은 신년사에서 "사전예방적 금융소비자보호로의 패러다임 전환"과 "상품 전 생애주기별 소비자보호 강화"를 내세우며 내부통제와 거버넌스 관리를 강조했다.
+결국 2026년 DB손해보험의 승부처는 손해율 변동성 축소와 자본·유동성 방어, 포테그라를 축으로 한 해외 이익 규모 확대, AI 기반 효율화가 한 흐름으로 연결되느냐다.
+정종표 사장은 "국내는 손해율 등 수익성 경쟁우위 회복을 통한 안정적 사업구조를 구축하고, 해외는 신규 성장모델과 수익규모 확대를 통해 차별화된 글로벌 경쟁력을 확보하겠다"며 "전사 역량을 집중하겠다"고 말했다.</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -529,36 +529,130 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>현대해상</t>
+          <t>KB손해보험</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>“유병자도 쉽게 가입”…현대해상, 간편건강보험 광고 공개 - 매일경제</t>
+          <t>KB손해보험, AI 및 디지털 전환 가속화로 고객경험 혁신 나선다 - 리버티코리아포스트</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu, 15 Jan 2026 08:00:00 GMT</t>
+          <t>Thu, 22 Jan 2026 08:30:18 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mk.co.kr/news/economy/11934156</t>
+          <t>http://www.lkp.news/news/articleView.html?idxno=75365</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>사진 확대 현대해상이 15일 간편건강보험 신규 광고를 공개했다. [현대해상]
-현대해상이 보험 가입 문턱을 낮춘 메시지를 담은 간편건강보험 신규 TV 광고 ‘현대해상은 간편하지’편을 15일 공개했다.
-이번 광고는 ‘유병자들의 걱정을 덜어주는 보험’이라는 키 메시지로 제작됐다. 현대해상은 과거 병력이나 건강 이력으로 보험 가입을 망설이는 고객들에게 현대해상 간편건강보험을 통해서는 유병자도 간편하게 가입 가능하다는 메시지를 전달하는 데 중점을 뒀다.
-광고는 유병자들의 보험가입에 대한 심리·절차적 부담을 ‘허들’로 표현해 근심걱정이 가득한 사람들을 조명한다. 하지만 몇 가지 질문만으로 간편하게 가입 가능한 인공지능(AI) 자동 심사 프로세스를 통해 유병자들도 ‘허들’을 쉽게 뛰어넘을 수 있게 한 현대해상 간편건강보험 상품의 특징과 장점을 전달한다.
-현대해상 관계자는“유병자 고객들의 현실적인 고민에 공감하고 보험 가입의 문턱을 낮추고자 한 현대해상의 마음을 전달하고자 했다”며 “현대해상 간편건강보험의 AI 자동 심사 프로세스를 통해 간편한 가입으로 다양한 보장을 경험하기를 기대한다”고 밝혔다.
-한편 해당 광고는 현대해상 유튜브 채널과 TV 등 다양한 매체를 통해 확인할 수 있다.</t>
+          <t>그래픽=리버티코리아포스트
+[리버티코리아포스트=문효근 기자]
+보험 업계의 AI 전략이 한층 진화하고 있다. 단순한 자동화나 업무적인 효율 개선을 넘어 경영 전략과 조직 시스템 등 사업 구조 전반으로 AI가 확산되는 중이다. 최근에는 AI를 상품 개발, 손해율 관리, 조직 운영 등에 접목하는 흐름이 뚜렷해지고 있다.
+◆ AI 기술 기반으로 고객경험 혁신에 적극 나서
+올해 보험사 조직개편의 핵심 중 한 부분은 AI 전환을 전사 단위에 적용시켰다는 점이다. 기존에는 디지털 전환 조직이 AI 프로젝트를 추진하는 형태가 많았다면 올해부터는 전사적인 컨트롤타워를 구축해 AI 전환을 위한 과제 개발부터 실행 등에 이르기까지 총괄하는 구조로 변모했다.
+주요 보험사들은 금융소비자 보호를 우선으로 한 AI 전환과 미래 성장동력 확보를 중점적인 목표로 제시했다. 높아지는 규제 강화와 변동성이 큰 영업 환경에서 단순한 비용 절감 차원이 아니라 시스템적인 경쟁력를 강화하려는 기조로 보인다.
+KB손해보험도 AI 및 디지털 전환에 적극적으로 나서며 미래 성장동력을 구축하는데 분주한 모습이다.
+지난 연말 조직개편을 통해 기존 DT추진본부를 AI데이터본부로 재편해 실질적인 AI 전환 실행력을 확보하고자 했다. 영업조직에는 AI 및 디지털 기반의 미래 채널 운영 모델 구축을 위한 스마트비서유닛을 신설했다.
+고객 서비스 품질 제고를 위해서는 콜센터 조직을 AI데이터본부 산하로 이동시켰고, 소비자보호본부에는 고객경험 전담 조직을 신설해 고객 접점 전반을 점검하는 시스템을 구축했다.
+&lt;본지&gt;에 KB손해보험 관계자는 “AI데이터본부 산하에 콜센터 조직을 편제했고, 소비자보호본부 산하에는 고객경험파트를 신설해 고객중심 경영을 위한 전사 컨트롤타워 운영체계를 구축했다”며 “AI 및 디지털 가속화를 통해 고객 서비스 품질을 더욱 향상시키는 한편 AI 기술을 기반으로 고객경험 혁신에 적극적으로 나설 예정”이라고 전했다.
+한편 KB손해보험은 다양한 기업과의 협업을 통해서도 디지털 사업을 확장시켜 왔다.
+지난해 LG유플러스, 인슈어테크 기업 스몰티켓과 함께 실시간 차량 데이터 기반의 상품 개발에 나섰다. KB손해보험은 양사와 업무협약을 맺고 급변하는 모빌리티 환경에 대응하는 한편 차량 데이터와 AI 기술을 접목한 차세대 자동차보험 상품 및 위험관리 서비스를 개발하기로 했다. 보험·통신·플랫폼을 유기적으로 결합한 신규 모델이라는 점과 고객의 안전운전을 유도하고 보험료 할인 혜택까지 제공하는 의미 있는 사례라는 점에서 이목을 모았다.
+◆ 다양한 AI 서비스로 디지털 전환 꾸준히 준비
+AI 전환은 구본욱 KB손해보험 대표의 디지털 혁신경영 전략의 일환이다. 구 대표 취임 이후 KB손해보험은 AI 및 디지털 전환을 꾸준히 추진해 왔다.
+2024년 4월 K-BEST 차세대 시스템을 도입해 고객 맞춤형 서비스의 경쟁력을 제고시켰다. K-BEST 차세대 시스템은 미래 환경 변화에 선제적으로 대응해 고객별 맞춤형 보험설계는 물론 심사, 관리, 지급 서비스 등이 가능한 시스템이다.
+작년 5월에는 KB금융그룹 및 계열사들과 협업해 생성형 AI 기술 활용 플랫폼인 KB GenAI 포털을 구축했다. 영업 현장과 고객의 다양한 요구에 대응할 수 있는 AI 에이전트를 개발할 수 있도록 돕는 포털이다. IT 개발 경험이 없는 직원도 자신만의 AI 에이전트를 만들어 실무에 적용할 수 있어, 생성형 AI 기술에 기반한 금융 서비스 확산이 한층 업그레이드될 것으로 기대된다.
+6월에는 보험설계사와 고객 사이 소통의 품질을 높이는 한편 고객 만족도를 향상시키기 위해 AI 기반의 화법 코칭 솔루션인 크디랩의 쏘카인드를 영업교육 현장에 도입했다.
+9월에는 접수된 자동차 사고 내용을 AI가 스스로 분석해 예상 과실 비율 등을 자동으로 산정해 주는 자동차 사고 과실 비율 안내 AI 에이전트 서비스를 선보였다.
+◆ AI 시대 걸맞은 일하는 방식 변화 추진
+10월에는 이미 상담 이력이 있는 고객에게 보다 연속적이고 일관된 상담 서비스를 제공하기 위해 상담원의 과거 상담 내용을 AI가 자동으로 요약해 안내하는 콜센터 상담지원 AI 에이전트도 도입해 업무에 활용하고 있다.
+11월에는 생성형 AI 기술을 활용한 AI 민원 해결 도우미 서비스를 도입하는 등 KB손해보험의 디지털 혁신은 고객 민원 해결에까지 도달하는 수준에 왔다.
+&lt;본지&gt;에 KB손해보험 관계자는 “AI 시대에 부합하는 임직원들의 일하는 방식의 변화를 적극적으로 추진하고 있다. 이를 통해 빠르게 변화하는 디지털 환경 속에서 뚜렷한 성과를 창출하고자 노력 중”이라고 전했다.</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>보험사</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>교보생명, 청각장애 고객 대상 실시간 원격 수어통역 - 매일경제</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon, 26 Jan 2026 07:01:36 GMT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.mk.co.kr/news/special-edition/11943376</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>사진 확대 교보생명의 고객 상담 편의성을 높이기 위한 디지털고객창구. 교보생명
+교보생명은 금융소비자 보호와 포용적 금융 실천을 위해 금융 취약계층 맞춤형 서비스를 대폭 강화하고 있다. 상품 개발 단계부터 디지털 격차 해소까지 전 과정에 걸쳐 실질적인 혜택을 제공함으로써 누구나 소외되지 않는 금융 환경을 조성하겠다는 취지다.올해 교보생명은 주요 경영 과제로 고객 완전 보장과 금융소비자 보호를 내걸고 사회적 책임 강화에 집중하고 있다. 신창재 교보생명 대표이사 겸 이사회 의장은 연초 보험의 완전 가입과 유지, 정당한 보험금 지급을 통한 소비자 보호가 생명보험 정신의 실천임을 강조하며 현장의 변화를 독려했다.특히 청각장애 고객을 위한 서비스 혁신이 눈에 띈다. 교보생명은 한국지능정보사회진흥원의 '손말이음센터'와 협력해 실시간 통신 중계 서비스를 제공하고 있다. 수어 통역사가 고객의 영상이나 문자를 음성으로 변환해 상담사에게 전달하는 방식이다. 2024년부터는 전국 5개 디지털 고객창구에 '아바타 수어 서비스'를 도입해 화상 상담을 지원하고 있으며 이를 점진적으로 확대할 계획이다.고령층과 장애인을 위한 제도적 보완도 이뤄졌다. 고령 고객의 이해를 돕기 위해 보험 계약 안내물을 큰 글씨로 제작하고, 핵심 요약 자료인 우선안내 확인서를 통해 주요 사항을 명확히 전달하고 있다. 아울러 치매나 중증질환으로 직접 청구가 어려운 상황을 대비해 지정대리청구인 제도를 운영하고, 대출 이용 시 본인과 지정인 모두에게 정보를 알리는 지정인 알림 서비스도 시행 중이다.금융 소외 지역과 계층을 아우르는 전용 상품 공급에도 적극적이다. 장애인 전용 암·건강보험인 '교보곰두리보장보험'을 비롯해 자립준비청년의 자산 형성을 돕는 '교보청년저축보험'을 운영하고 있다.[차창희 기자]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>보험사</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>신한라이프</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>신한라이프, '쏠라체' 1호 개소·KB라이프 복합점포 가동…금융지주 시너지 잰걸음 [보험사 시니어 금융 전략] - 한국금융신문</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed, 21 Jan 2026 08:55:19 GMT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.fntimes.com/html/view.php?ud=2026012113291239369efc5ce4ae_18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>금융·주거·의료 결합한 그룹 시니어 전략
+신한라이프케어 첫 번째 프리미엄 요양원 ‘쏠라체(SOLÀCE) 홈 미사’. 사진제공=신한라이프 신한라이프, '쏠라체' 1호 개소·KB라이프 복합점포 가동…금융지주 시너지 잰걸음 [보험사 시니어 금융 전략] 이미지 확대보기
+진옥동 닫기 진옥동 기사 모아보기
+정상혁 닫기 정상혁 기사 모아보기
+그룹 통합 시니어 모델 구축… 원스톱 노후 지원
+서울 역삼동 KB라이프타워에 마련된 에이지테크랩(Age Tech Lab)에서 관계자들이 전동휠체어 체험을 하고 있다. 사진제공=KB금융 신한라이프, '쏠라체' 1호 개소·KB라이프 복합점포 가동…금융지주 시너지 잰걸음 [보험사 시니어 금융 전략] 이미지 확대보기
+강은영 한국금융신문 기자 eykang@fntimes.com
+[한국금융신문 강은영 기자] 국내 금융지주계열 보험사들이 금융그룹과의 시너지를 앞세워 시니어 사업 확대에 속도를 내고 있다. 자산관리 중심의 전통 금융 서비스에서 나아가 생명보험사를 축으로 요양과 돌봄까지 포괄하는 전략이 본격화되면서, 금융그룹 차원의 시니어 비즈니스가 새로운 성장 축으로 부상하고 있다.21일 보험업계에 따르면, 국내 금융지주계열 보험사들은 금융그룹과 함께 요양사업을 강화하고 있다.금융그룹들은 생명보험사를 중심 축으로 은행·증권·요양 자회사 등 계열사 역량을 결합해 자산관리부터 의료·돌봄까지 아우르는 종합 시니어 서비스 구축에 속도를 내고 있다.신한라이프 시니어 전담 자회사 신한라이프케어는 지난 15일 경기도 하남시 미사지구에서 첫 번째 프리미엄 요양원 ‘쏠라체(SOLÀCE) 홈 미사’를 개소했다.‘쏠라체 홈 미사’는 시니어의 지속 가능한 삶을 위해 일상생활 수행이 어려운 어르신을 대상으로 숙식 제공과 함께 신체활동 및 인지기능 유지·향상을 고려한 종합적인 돌봄 서비스를 상시 제공하는 노인요양시설이다.특히 그룹의 시니어사업을 대표하는 상징적인 시설로 집처럼 아늑하면서도 한층 더 품격 있는 편안함을 제공할 수 있도록 설계됐다. 오감(五感) 만족을 고려한 공간 구성을 통해 어르신들이 신체·심리적 안정을 갖고 생활할 수 있도록 개발됐다.업계 최고 수준의 돌봄 인력을 배치함과 동시에 안전과 신체 편의, 스마트 돌봄을 아우르는 환경 요소들을 시설 전반에 반영했다. 1인 1실 중심의 구조를 통해 생활의 안정감을 높이고 프라이버시를 존중하고, 시력 약자를 고려해 판독성이 높은 전용 글꼴을 개발해 적용하는 등 이용 편의성도 세심하게 담아냈다.쏠라체 홈 미사 개소식에는 신한금융그룹회장과신한은행장, 정용욱 신한투자증권 신한프리미어총괄사장, 천상영 신한라이프 사장 등 그룹 경영진과 이현재 하남시장, 김철주 생명보험협회장, 정재승 KAIST 교수 등 주요 내·외빈이 참석했다.진옥동 회장은 축사를 통해 “쏠라체 홈 미사는 신한금융그룹이 선보이는 첫 시니어 시설로, 금융·주거·의료 서비스를 한 공간에 담아낸 곳”이라며 “단순히 머무는 시설이 아니라 편안한 일상이 이어지는 생활 공간이 되길 기대한다”고 말했다.신한라이프케어는 신한금융그룹의 디지털 브랜드 ‘SOL’과 이탈리아어 ‘VERACE(진정한, 진실된, 참된)’를 결합하여 개발된 ‘쏠라체(SOLÀCE)’ 브랜드를 본격적으로 운영하며 진정성과 신뢰를 바탕으로 한 시니어 돌봄 서비스를 단계적으로 확대해 나갈 계획이다.KB금융그룹은 지난 20일 서울 역삼동 KB라이프타워에 보험·요양·은행 서비스를 결합한 보험-은행 복합점포 'KB라이프 역삼센터'를 개소했다.KB금융은 시니어 고객들이 한 곳에서 연결되는 통합 서비스를 통해 더 빠르고 정확한 지원을 받을 수 있도록 지난해부터 새로운 그룹 통합 시니어 서비스 운영모델 구축을 추진해 왔다.이번에 새롭게 선보이는 'KB골든라이프 플래그십 센터'는 고객의 노후 설계를 위해 필요한 의사 결정을 돕고, 생활의 편의를 높이는 새로운 기술과 전문성을 축적해 시니어 고객의 노후 준비 과정 전반을 지원한다.KB골든라이프 플래그십 센터는 'KB라이프 역삼센터'를 중심으로, 시니어를 위한 최신 기술 체험·연구 공간인 '에이지테크 랩(Age Tech Lab)'과 요양·돌봄·주거·건강·재무 등 시니어 라이프 전반을 연구하는 'KB골든라이프 교육센터'로 구성된다.KB라이프 역삼센터에서는 보험을 넘어 자산관리와 요양·돌봄까지 아우르는 원스톱 종합 라이프 컨설팅 서비스를 제공한다. 금융업권 최초로 전문 간호사로 구성된 케어컨설턴트가 상주하며, 가족 돌봄이 필요한 고객을 위해 재가돌봄에서 요양원 입소에 이르는 종합 요양·돌봄 컨설팅을 지원한다.방문 고객은 보험PB를 통한 맞춤형 보험 진단·상담과 보험계약관리 서비스는 물론, WM 웰스매니저의 노후 소득 설계 서비스도 받을 수 있다. 퇴직연금, 상속증여 등 은퇴 이후 금융상담 제공을 위해 KB국민은행의 KB골든라이프센터도 함께 운영된다.이와 함께 오는 2월에는 요양 상담과 연계한 돌봄 서비스와 시니어를 위한 최신 기술을 직접 체험할 수 있는 '에이지테크랩'도 오픈한다. 현장감 있는 체험 기반의 편의·안전·건강관리 솔루션을 통해 시니어 고객의 노후 생활에 대한 이해도를 높이고 합리적인 의사 결정을 돕는다.정문철 KB라이프 대표이사는 “시니어 고객의 삶은 요양과 금융으로 나뉘지 않는다. 돌봄·주거·건강·재무는 고객의 일상에서 하나의 여정으로 긴밀히 연결돼 있기 때문”이라며 “KB금융은 'KB라이프 역삼센터'를 중심으로 고객이 한 곳에서 노후 전반을 진단하고, 설계해 실질적인 준비로 이어갈 수 있는 새로운 경험을 제공할 것”이라고 말했다.</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
